--- a/SD NEW.xlsx
+++ b/SD NEW.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c3c55484c6118908/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEMESTERS\4-1\SD-LAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{E84883D7-EF88-4279-A4F9-B95CA68B68E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EC4A9EF-23D2-4D5B-8779-3646BB7B0B27}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4786D6-D319-4292-BA5D-E108B82677F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="10" xr2:uid="{AF53E1CC-ED66-4923-805A-90E7FBA7C66D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="9" xr2:uid="{AF53E1CC-ED66-4923-805A-90E7FBA7C66D}"/>
   </bookViews>
   <sheets>
     <sheet name="iso foot" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="663">
   <si>
     <t>1)DESIGN DATA INPUT</t>
   </si>
@@ -2055,6 +2053,9 @@
   <si>
     <t>Provided Reft</t>
   </si>
+  <si>
+    <t>development length</t>
+  </si>
 </sst>
 </file>
 
@@ -2065,7 +2066,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2184,8 +2185,24 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2344,6 +2361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2797,7 +2820,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3028,118 +3051,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3177,15 +3092,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3236,15 +3142,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3257,23 +3154,11 @@
     <xf numFmtId="0" fontId="5" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3308,12 +3193,160 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3329,6 +3362,1508 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503C2E40-208A-49E5-815C-443410695CF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11426825" y="3937000"/>
+          <a:ext cx="1212850" cy="2146300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1733550</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68747973-77DB-4603-A290-536033D21660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9829800" y="6092825"/>
+          <a:ext cx="4324350" cy="1651000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4315D7E-552F-46CB-ACCF-09054F39151F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9886950" y="3937000"/>
+          <a:ext cx="4267200" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>675481</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>48419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>677069</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>124619</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A34AAB-43F4-4094-BB15-27E445159E90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10448925" y="5394325"/>
+          <a:ext cx="2298700" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Connector 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58EE79CF-8947-4E51-809D-B27C2283CDED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11337925" y="5394325"/>
+          <a:ext cx="2203450" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676277</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9145D27E-9D67-4275-A837-2E3C8278AE5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="10544175" y="6543674"/>
+          <a:ext cx="1054102" cy="9526"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Straight Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13C1756-BDCE-473C-BB35-EE57E453D13C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="6486525"/>
+          <a:ext cx="885825" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49006629-C4FE-4693-8C09-BAD30E123A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11626850" y="4552950"/>
+          <a:ext cx="793750" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Straight Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D008DD5-23AF-4564-8BF0-3C0FC26DCE6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11588750" y="5006975"/>
+          <a:ext cx="812800" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>125413</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Straight Connector 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A57870-35A7-4CCE-B6E4-185CE40E1337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11598275" y="5337175"/>
+          <a:ext cx="831850" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEDB748B-C6E0-4138-BF6D-1202705C3841}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11607800" y="5753100"/>
+          <a:ext cx="860425" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Straight Connector 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F60C69A-74D2-4B11-8BD1-4E67DD50D056}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10039350" y="7302500"/>
+          <a:ext cx="3771900" cy="38100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2000255</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2009777</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>123828</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Straight Connector 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1BD2D1C-8521-4FD8-9AEB-1BD2397F3662}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="10006014" y="7212016"/>
+          <a:ext cx="190503" cy="9522"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28573</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38102</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Straight Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B709DA-770C-4524-8BBF-0E7E381BE4FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="13658850" y="7245349"/>
+          <a:ext cx="257176" cy="9529"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2124075</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Oval 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54083A6F-E1BC-4EC6-A28B-C0E025908618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10220325" y="7121525"/>
+          <a:ext cx="180975" cy="152399"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Oval 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC4D7C4-A581-4617-AEFE-21F0F2EC32E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11274425" y="7121525"/>
+          <a:ext cx="180975" cy="152399"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Oval 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6140179-81AA-41F7-A29C-75A5D275138D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12001500" y="7121525"/>
+          <a:ext cx="180975" cy="152399"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="Oval 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D8CC7A-70A2-4906-B8DE-3EC57E3CD4AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12725400" y="7131050"/>
+          <a:ext cx="180975" cy="152399"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="Oval 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7548AFF7-2C17-4581-B739-10481FBE2872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13506450" y="7131050"/>
+          <a:ext cx="180975" cy="152399"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2419350</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6A8D16-BE4D-43BF-81F8-1E035CF04902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10515600" y="7197725"/>
+          <a:ext cx="3305175" cy="873125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49B483C-78A0-4B74-9581-DC1284371388}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12239625" y="7226300"/>
+          <a:ext cx="1581150" cy="835025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B03A409-AE4F-4796-BA43-68555835A133}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="13374688" y="7643811"/>
+          <a:ext cx="787400" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>800101</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0A45022-8B9F-4C68-9F02-15C26B1246AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11717338" y="3922712"/>
+          <a:ext cx="288925" cy="279400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Straight Connector 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0634105C-6246-4D5F-A4F0-DCB96AABD926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="11758613" y="3811589"/>
+          <a:ext cx="638174" cy="190499"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>104778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Straight Connector 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D0568D0-4F87-47EB-B086-2EDBA901E826}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="12071351" y="3679826"/>
+          <a:ext cx="365122" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Straight Connector 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CF22DB6-123E-4B4F-8A4A-9C113F9D81CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12753975" y="5572125"/>
+          <a:ext cx="2047875" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Straight Connector 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D4C3AFA-86AC-4EF9-88AF-3792FAE52991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11226800" y="5581650"/>
+          <a:ext cx="3556000" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4100,7 +5635,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4821,7 +6356,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5519,7 +7054,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5822,211 +7357,6 @@
           <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Connector 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5595EA3D-F75B-4ABD-8AEC-AE719541CA30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="13154978" y="5521643"/>
-          <a:ext cx="674370" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA95634E-3869-4D75-AFC9-E7E944D35D13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="13496925" y="4610100"/>
-          <a:ext cx="2295525" cy="607696"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Connector 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9325A647-795B-48FE-B9C2-0B68060A24B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="15488603" y="4913947"/>
-          <a:ext cx="617220" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>28577</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F778767-2826-432E-935F-A3824459251A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="15811500" y="4591050"/>
-          <a:ext cx="1095375" cy="9527"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -8431,10 +9761,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8754,41 +10080,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFDEB62-6AEF-4AA9-B56B-CF6A3457B506}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A51" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R90" sqref="R90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.109375" customWidth="1"/>
+    <col min="1" max="1" width="36.08984375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="30.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" customWidth="1"/>
+    <col min="7" max="7" width="30.08984375" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+    <col min="18" max="20" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="140"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
+      <c r="F1" s="189"/>
+      <c r="G1" s="189"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="189"/>
+      <c r="J1" s="190"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -8805,7 +10132,7 @@
       <c r="H2" s="7"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -8832,7 +10159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -8859,7 +10186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -8872,7 +10199,7 @@
       <c r="F5" s="9"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -8885,7 +10212,7 @@
       <c r="F6" s="9"/>
       <c r="K6" s="12"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -8898,7 +10225,7 @@
       <c r="F7" s="9"/>
       <c r="K7" s="12"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -8912,7 +10239,7 @@
       <c r="F8" s="9"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>18</v>
       </c>
@@ -8931,7 +10258,7 @@
       <c r="J9" s="14"/>
       <c r="K9" s="17"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>19</v>
       </c>
@@ -8945,7 +10272,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -8961,7 +10288,7 @@
       <c r="H13" s="22"/>
       <c r="K13" s="12"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
@@ -8989,7 +10316,7 @@
       </c>
       <c r="K14" s="12"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F15" s="13" t="s">
         <v>25</v>
       </c>
@@ -9005,7 +10332,7 @@
       </c>
       <c r="K15" s="17"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="26" t="s">
         <v>26</v>
       </c>
@@ -9023,7 +10350,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="8"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -9040,7 +10367,7 @@
       </c>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>31</v>
       </c>
@@ -9060,7 +10387,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -9086,7 +10413,7 @@
       </c>
       <c r="K22" s="12"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>37</v>
       </c>
@@ -9116,7 +10443,7 @@
       </c>
       <c r="K23" s="12"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>42</v>
       </c>
@@ -9143,7 +10470,7 @@
       </c>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>44</v>
       </c>
@@ -9158,7 +10485,7 @@
       </c>
       <c r="K25" s="12"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="str">
         <f>IF(B24&lt;B5,"SAFE","unsafe")</f>
         <v>SAFE</v>
@@ -9182,14 +10509,14 @@
       </c>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F27" s="9"/>
       <c r="G27" s="10" t="s">
         <v>48</v>
       </c>
       <c r="K27" s="12"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F28" s="16"/>
       <c r="G28" s="31" t="str">
         <f>IF(H23&lt;H26,"SAFE","unsafe")</f>
@@ -9200,7 +10527,7 @@
       <c r="J28" s="14"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="32" t="s">
         <v>49</v>
       </c>
@@ -9218,7 +10545,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="8"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -9236,7 +10563,7 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>33</v>
       </c>
@@ -9257,7 +10584,7 @@
       </c>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>55</v>
       </c>
@@ -9279,7 +10606,7 @@
       </c>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>57</v>
       </c>
@@ -9301,7 +10628,7 @@
       </c>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>59</v>
       </c>
@@ -9316,7 +10643,7 @@
       </c>
       <c r="K36" s="12"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="35" t="s">
         <v>61</v>
       </c>
@@ -9332,7 +10659,7 @@
       </c>
       <c r="K37" s="12"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="35" t="s">
         <v>62</v>
       </c>
@@ -9340,7 +10667,7 @@
       <c r="F38" s="9"/>
       <c r="K38" s="12"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="38" t="str">
         <f>IF(B37&lt;H22,"SAFE","UNSAFE")</f>
         <v>SAFE</v>
@@ -9355,7 +10682,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="17"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="39" t="s">
         <v>63</v>
       </c>
@@ -9373,7 +10700,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="8"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>66</v>
       </c>
@@ -9390,7 +10717,7 @@
       </c>
       <c r="K42" s="12"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>68</v>
       </c>
@@ -9412,7 +10739,7 @@
       </c>
       <c r="K43" s="12"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>31</v>
       </c>
@@ -9433,7 +10760,7 @@
       </c>
       <c r="K44" s="12"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>71</v>
       </c>
@@ -9448,7 +10775,7 @@
       </c>
       <c r="K45" s="12"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="35" t="s">
         <v>73</v>
       </c>
@@ -9467,7 +10794,7 @@
       </c>
       <c r="K46" s="12"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="35" t="s">
         <v>74</v>
       </c>
@@ -9479,7 +10806,7 @@
       <c r="F47" s="9"/>
       <c r="K47" s="12"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="35" t="s">
         <v>75</v>
       </c>
@@ -9496,7 +10823,7 @@
       <c r="F48" s="9"/>
       <c r="K48" s="12"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" s="43" t="s">
         <v>77</v>
       </c>
@@ -9510,8 +10837,8 @@
       <c r="J49" s="14"/>
       <c r="K49" s="17"/>
     </row>
-    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="44" t="s">
         <v>78</v>
       </c>
@@ -9526,7 +10853,7 @@
       </c>
       <c r="H52" s="47"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>81</v>
       </c>
@@ -9540,7 +10867,7 @@
       </c>
       <c r="H53" s="50"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>82</v>
       </c>
@@ -9563,7 +10890,7 @@
       </c>
       <c r="H54" s="50"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>83</v>
       </c>
@@ -9583,7 +10910,7 @@
       </c>
       <c r="H55" s="50"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>85</v>
       </c>
@@ -9603,7 +10930,7 @@
       </c>
       <c r="H56" s="50"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>86</v>
       </c>
@@ -9620,7 +10947,7 @@
       </c>
       <c r="H57" s="50"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>87</v>
       </c>
@@ -9640,7 +10967,7 @@
       </c>
       <c r="H58" s="50"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>89</v>
       </c>
@@ -9660,7 +10987,7 @@
       </c>
       <c r="H59" s="50"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>91</v>
       </c>
@@ -9674,7 +11001,7 @@
       </c>
       <c r="H60" s="50"/>
     </row>
-    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="30" t="str">
         <f>IF(B59&lt;B58,"SAFE","unsafe")</f>
         <v>SAFE</v>
@@ -9691,11 +11018,257 @@
       </c>
       <c r="H61" s="53"/>
     </row>
+    <row r="78" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A78" s="234"/>
+      <c r="B78" s="234"/>
+      <c r="C78" s="234"/>
+      <c r="D78" s="234"/>
+      <c r="E78" s="234"/>
+      <c r="F78" s="234"/>
+      <c r="G78" s="234"/>
+      <c r="H78" s="234"/>
+      <c r="I78" s="234"/>
+      <c r="J78" s="234"/>
+    </row>
+    <row r="79" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A79" s="234"/>
+      <c r="B79" s="234"/>
+      <c r="C79" s="234"/>
+      <c r="D79" s="234"/>
+      <c r="E79" s="234"/>
+      <c r="F79" s="234"/>
+      <c r="G79" s="234"/>
+      <c r="H79" s="234"/>
+      <c r="I79" s="234"/>
+      <c r="J79" s="234"/>
+    </row>
+    <row r="80" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A80" s="234"/>
+      <c r="B80" s="234"/>
+      <c r="C80" s="234"/>
+      <c r="D80" s="234"/>
+      <c r="E80" s="234"/>
+      <c r="F80" s="234"/>
+      <c r="G80" s="234"/>
+      <c r="H80" s="234"/>
+      <c r="I80" s="234"/>
+      <c r="J80" s="234"/>
+    </row>
+    <row r="81" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A81" s="234"/>
+      <c r="B81" s="234"/>
+      <c r="C81" s="234"/>
+      <c r="D81" s="234"/>
+      <c r="E81" s="234"/>
+      <c r="F81" s="234"/>
+      <c r="G81" s="234"/>
+      <c r="H81" s="234"/>
+      <c r="I81" s="234"/>
+      <c r="J81" s="234"/>
+    </row>
+    <row r="82" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A82" s="234"/>
+      <c r="B82" s="234"/>
+      <c r="C82" s="234"/>
+      <c r="D82" s="234"/>
+      <c r="E82" s="234"/>
+      <c r="F82" s="234"/>
+      <c r="G82" s="234"/>
+      <c r="H82" s="234"/>
+      <c r="I82" s="234"/>
+      <c r="J82" s="234"/>
+    </row>
+    <row r="83" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A83" s="234"/>
+      <c r="B83" s="234"/>
+      <c r="C83" s="234"/>
+      <c r="D83" s="234"/>
+      <c r="E83" s="234"/>
+      <c r="F83" s="234"/>
+      <c r="G83" s="234"/>
+      <c r="H83" s="234"/>
+      <c r="I83" s="234"/>
+      <c r="J83" s="234"/>
+    </row>
+    <row r="84" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A84" s="234"/>
+      <c r="B84" s="234"/>
+      <c r="C84" s="234"/>
+      <c r="D84" s="234"/>
+      <c r="E84" s="234"/>
+      <c r="F84" s="234"/>
+      <c r="G84" s="234"/>
+      <c r="H84" s="234"/>
+      <c r="I84" s="234"/>
+      <c r="J84" s="234"/>
+    </row>
+    <row r="85" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A85" s="234"/>
+      <c r="B85" s="234"/>
+      <c r="C85" s="234"/>
+      <c r="D85" s="234"/>
+      <c r="E85" s="234"/>
+      <c r="F85" s="234"/>
+      <c r="G85" s="234"/>
+      <c r="H85" s="234"/>
+      <c r="I85" s="234"/>
+      <c r="J85" s="234"/>
+    </row>
+    <row r="86" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A86" s="234"/>
+      <c r="B86" s="234"/>
+      <c r="C86" s="234"/>
+      <c r="D86" s="234"/>
+      <c r="E86" s="234"/>
+      <c r="F86" s="234"/>
+      <c r="G86" s="234"/>
+      <c r="H86" s="234" t="s">
+        <v>662</v>
+      </c>
+      <c r="I86" s="234"/>
+      <c r="J86" s="234"/>
+    </row>
+    <row r="87" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A87" s="234"/>
+      <c r="B87" s="234"/>
+      <c r="C87" s="234"/>
+      <c r="D87" s="234"/>
+      <c r="E87" s="234"/>
+      <c r="F87" s="234"/>
+      <c r="G87" s="234"/>
+      <c r="H87" s="234"/>
+      <c r="I87" s="234"/>
+      <c r="J87" s="234"/>
+    </row>
+    <row r="88" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A88" s="234"/>
+      <c r="B88" s="234"/>
+      <c r="C88" s="234"/>
+      <c r="D88" s="234"/>
+      <c r="E88" s="234"/>
+      <c r="F88" s="234"/>
+      <c r="G88" s="234"/>
+      <c r="H88" s="234"/>
+      <c r="I88" s="234"/>
+      <c r="J88" s="234"/>
+    </row>
+    <row r="89" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A89" s="234"/>
+      <c r="B89" s="234"/>
+      <c r="C89" s="234"/>
+      <c r="D89" s="234"/>
+      <c r="E89" s="234"/>
+      <c r="F89" s="234"/>
+      <c r="G89" s="234"/>
+      <c r="H89" s="234"/>
+      <c r="I89" s="234"/>
+      <c r="J89" s="234"/>
+    </row>
+    <row r="90" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A90" s="234"/>
+      <c r="B90" s="234"/>
+      <c r="C90" s="234"/>
+      <c r="D90" s="234"/>
+      <c r="E90" s="234"/>
+      <c r="F90" s="234"/>
+      <c r="G90" s="234"/>
+      <c r="H90" s="234"/>
+      <c r="I90" s="234"/>
+      <c r="J90" s="234"/>
+    </row>
+    <row r="91" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A91" s="234"/>
+      <c r="B91" s="234"/>
+      <c r="C91" s="234"/>
+      <c r="D91" s="234"/>
+      <c r="E91" s="234"/>
+      <c r="F91" s="234"/>
+      <c r="G91" s="234"/>
+      <c r="H91" s="234"/>
+      <c r="I91" s="234"/>
+      <c r="J91" s="234"/>
+    </row>
+    <row r="92" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A92" s="234"/>
+      <c r="B92" s="234"/>
+      <c r="D92" s="234"/>
+      <c r="E92" s="234"/>
+      <c r="F92" s="234"/>
+      <c r="G92" s="234"/>
+      <c r="H92" s="234"/>
+      <c r="I92" s="234"/>
+      <c r="J92" s="234"/>
+    </row>
+    <row r="93" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A93" s="234"/>
+      <c r="B93" s="234"/>
+      <c r="C93" s="234"/>
+      <c r="D93" s="234"/>
+      <c r="E93" s="234"/>
+      <c r="F93" s="234"/>
+      <c r="G93" s="234"/>
+      <c r="H93" s="234"/>
+      <c r="I93" s="234"/>
+      <c r="J93" s="234"/>
+    </row>
+    <row r="94" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A94" s="234"/>
+      <c r="B94" s="234"/>
+      <c r="C94" s="234"/>
+      <c r="D94" s="234"/>
+      <c r="E94" s="234"/>
+      <c r="F94" s="234"/>
+      <c r="G94" s="234"/>
+      <c r="H94" s="234"/>
+      <c r="I94" s="234"/>
+      <c r="J94" s="234"/>
+    </row>
+    <row r="95" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A95" s="234"/>
+      <c r="B95" s="234"/>
+      <c r="C95" s="234"/>
+      <c r="D95" s="234"/>
+      <c r="E95" s="234"/>
+      <c r="F95" s="234"/>
+      <c r="G95" s="234"/>
+      <c r="H95" s="234"/>
+      <c r="I95" s="234"/>
+      <c r="J95" s="234"/>
+    </row>
+    <row r="96" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A96" s="234"/>
+      <c r="B96" s="234"/>
+      <c r="C96" s="234"/>
+      <c r="D96" s="234"/>
+      <c r="E96" s="234"/>
+      <c r="F96" s="235">
+        <f>C74</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="236"/>
+      <c r="H96" s="236"/>
+      <c r="I96" s="237"/>
+      <c r="J96" s="234"/>
+    </row>
+    <row r="97" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A97" s="234"/>
+      <c r="B97" s="234"/>
+      <c r="C97" s="234"/>
+      <c r="D97" s="234"/>
+      <c r="E97" s="234"/>
+      <c r="F97" s="234"/>
+      <c r="G97" s="234"/>
+      <c r="H97" s="234"/>
+      <c r="I97" s="234"/>
+      <c r="J97" s="234"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C1:J1"/>
+    <mergeCell ref="F96:I96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9703,50 +11276,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13505FF2-2D0C-4D3E-82B7-8C8BAB91CFCE}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" style="92" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="92" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="92"/>
-    <col min="5" max="5" width="33.33203125" style="92" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="92"/>
-    <col min="9" max="9" width="32.109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="92" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="92"/>
+    <col min="2" max="2" width="18.36328125" style="92" customWidth="1"/>
+    <col min="3" max="4" width="8.90625" style="92"/>
+    <col min="5" max="5" width="33.36328125" style="92" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" style="92" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.90625" style="92"/>
+    <col min="9" max="9" width="32.08984375" style="92" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" style="92" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.08984375" style="92" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.90625" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="210" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="227" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="211"/>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211"/>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="214" t="s">
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="230" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
       <c r="E2" s="96" t="s">
         <v>551</v>
       </c>
@@ -9757,28 +11330,28 @@
       <c r="G2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="195"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="215" t="s">
+      <c r="H2" s="156"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="173" t="s">
         <v>552</v>
       </c>
-      <c r="B3" s="216">
+      <c r="B3" s="174">
         <v>200</v>
       </c>
-      <c r="C3" s="216" t="s">
+      <c r="C3" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="195"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="215" t="s">
+      <c r="H3" s="156"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="173" t="s">
         <v>553</v>
       </c>
-      <c r="B4" s="216">
+      <c r="B4" s="174">
         <v>250</v>
       </c>
-      <c r="C4" s="216" t="s">
+      <c r="C4" s="174" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="94" t="s">
@@ -9791,7 +11364,7 @@
       <c r="G4" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="195"/>
+      <c r="H4" s="156"/>
       <c r="L4" s="92">
         <f>B3</f>
         <v>200</v>
@@ -9800,29 +11373,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="215" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="173" t="s">
         <v>555</v>
       </c>
-      <c r="B5" s="216">
+      <c r="B5" s="174">
         <v>12</v>
       </c>
-      <c r="C5" s="216" t="s">
+      <c r="C5" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="216" t="s">
+      <c r="E5" s="174" t="s">
         <v>556</v>
       </c>
-      <c r="F5" s="216">
+      <c r="F5" s="174">
         <v>2</v>
       </c>
-      <c r="G5" s="216"/>
-      <c r="H5" s="195"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="215"/>
-      <c r="B6" s="216"/>
-      <c r="C6" s="216"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="156"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="173"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
       <c r="E6" s="94" t="s">
         <v>557</v>
       </c>
@@ -9831,45 +11404,45 @@
         <v>5.9511501015322521</v>
       </c>
       <c r="G6" s="94"/>
-      <c r="H6" s="195"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="215" t="s">
+      <c r="H6" s="156"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="173" t="s">
         <v>558</v>
       </c>
-      <c r="B7" s="216">
+      <c r="B7" s="174">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="E7" s="216" t="s">
+      <c r="C7" s="174"/>
+      <c r="E7" s="174" t="s">
         <v>559</v>
       </c>
-      <c r="F7" s="216">
+      <c r="F7" s="174">
         <v>6</v>
       </c>
-      <c r="G7" s="216"/>
-      <c r="H7" s="195"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="215" t="s">
+      <c r="G7" s="174"/>
+      <c r="H7" s="156"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="173" t="s">
         <v>560</v>
       </c>
-      <c r="B8" s="216">
+      <c r="B8" s="174">
         <v>400</v>
       </c>
-      <c r="C8" s="216" t="s">
+      <c r="C8" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="195"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="215" t="s">
+      <c r="H8" s="156"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="173" t="s">
         <v>561</v>
       </c>
-      <c r="B9" s="216">
+      <c r="B9" s="174">
         <v>410</v>
       </c>
-      <c r="C9" s="216" t="s">
+      <c r="C9" s="174" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="94" t="s">
@@ -9882,7 +11455,7 @@
       <c r="G9" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="195"/>
+      <c r="H9" s="156"/>
       <c r="J9" s="92">
         <f>B4</f>
         <v>250</v>
@@ -9891,14 +11464,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="215" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="173" t="s">
         <v>563</v>
       </c>
-      <c r="B10" s="216">
+      <c r="B10" s="174">
         <v>24</v>
       </c>
-      <c r="C10" s="216" t="s">
+      <c r="C10" s="174" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="94" t="s">
@@ -9911,16 +11484,16 @@
       <c r="G10" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="195"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="215" t="s">
+      <c r="H10" s="156"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="173" t="s">
         <v>566</v>
       </c>
-      <c r="B11" s="216">
+      <c r="B11" s="174">
         <v>26</v>
       </c>
-      <c r="C11" s="216" t="s">
+      <c r="C11" s="174" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="94" t="s">
@@ -9933,10 +11506,10 @@
       <c r="G11" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="195"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="196"/>
+      <c r="H11" s="156"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="157"/>
       <c r="E12" s="94" t="s">
         <v>603</v>
       </c>
@@ -9947,10 +11520,10 @@
       <c r="G12" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="195"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="217" t="s">
+      <c r="H12" s="156"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="172" t="s">
         <v>569</v>
       </c>
       <c r="B13" s="99" t="s">
@@ -9967,10 +11540,10 @@
       <c r="G13" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="195"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="218" t="s">
+      <c r="H13" s="156"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="175" t="s">
         <v>572</v>
       </c>
       <c r="B14" s="94"/>
@@ -9985,16 +11558,16 @@
       <c r="G14" s="94" t="s">
         <v>183</v>
       </c>
-      <c r="H14" s="195"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="215" t="s">
+      <c r="H14" s="156"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="173" t="s">
         <v>574</v>
       </c>
-      <c r="B15" s="216">
+      <c r="B15" s="174">
         <v>250</v>
       </c>
-      <c r="C15" s="216" t="s">
+      <c r="C15" s="174" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="94" t="s">
@@ -10007,16 +11580,16 @@
       <c r="G15" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="195"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="215" t="s">
+      <c r="H15" s="156"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="173" t="s">
         <v>575</v>
       </c>
-      <c r="B16" s="216">
+      <c r="B16" s="174">
         <v>10.6</v>
       </c>
-      <c r="C16" s="216" t="s">
+      <c r="C16" s="174" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="94" t="s">
@@ -10029,10 +11602,10 @@
       <c r="G16" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="195"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="218" t="s">
+      <c r="H16" s="156"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="175" t="s">
         <v>577</v>
       </c>
       <c r="B17" s="94">
@@ -10045,28 +11618,28 @@
       <c r="E17" s="94" t="s">
         <v>175</v>
       </c>
-      <c r="F17" s="219" t="str">
+      <c r="F17" s="176" t="str">
         <f>IF(F16&gt;B31,"Not Okay","OK")</f>
         <v>OK</v>
       </c>
-      <c r="H17" s="195"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="215" t="s">
+      <c r="H17" s="156"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="173" t="s">
         <v>580</v>
       </c>
-      <c r="B18" s="216">
+      <c r="B18" s="174">
         <v>65</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="174" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="94"/>
       <c r="F18" s="94"/>
-      <c r="H18" s="195"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="218" t="s">
+      <c r="H18" s="156"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="175" t="s">
         <v>582</v>
       </c>
       <c r="B19" s="94">
@@ -10083,39 +11656,39 @@
         <f>B3/(F7*2)</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="H19" s="195"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="215" t="s">
+      <c r="H19" s="156"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="173" t="s">
         <v>584</v>
       </c>
-      <c r="B20" s="216">
+      <c r="B20" s="174">
         <v>40</v>
       </c>
-      <c r="C20" s="216" t="s">
+      <c r="C20" s="174" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="94" t="s">
         <v>175</v>
       </c>
-      <c r="F20" s="219" t="str">
+      <c r="F20" s="176" t="str">
         <f>IF(F19&gt;B25,"Not OKay","OK")</f>
         <v>OK</v>
       </c>
-      <c r="H20" s="195"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="196"/>
+      <c r="H20" s="156"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="157"/>
       <c r="E21" s="94"/>
       <c r="F21" s="94"/>
-      <c r="H21" s="195"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="214" t="s">
+      <c r="H21" s="156"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="230" t="s">
         <v>586</v>
       </c>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="203"/>
       <c r="E22" s="94" t="s">
         <v>609</v>
       </c>
@@ -10123,10 +11696,10 @@
         <f>(F19/B25)^2+(F16/B31)^2</f>
         <v>0.20060780383506424</v>
       </c>
-      <c r="H22" s="195"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="218" t="s">
+      <c r="H22" s="156"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="175" t="s">
         <v>588</v>
       </c>
       <c r="B23" s="94" t="s">
@@ -10136,14 +11709,14 @@
       <c r="E23" s="94" t="s">
         <v>175</v>
       </c>
-      <c r="F23" s="219" t="str">
+      <c r="F23" s="176" t="str">
         <f>IF(F22&gt;1,"Not Okay","OK")</f>
         <v>OK</v>
       </c>
-      <c r="H23" s="195"/>
-    </row>
-    <row r="24" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="218" t="s">
+      <c r="H23" s="156"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="175" t="s">
         <v>591</v>
       </c>
       <c r="B24" s="94">
@@ -10153,11 +11726,11 @@
       <c r="C24" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="H24" s="195"/>
+      <c r="H24" s="156"/>
       <c r="J24" s="100"/>
     </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="218" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="175" t="s">
         <v>592</v>
       </c>
       <c r="B25" s="94">
@@ -10167,33 +11740,33 @@
       <c r="C25" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="198" t="s">
+      <c r="E25" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="199"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="195"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="218" t="s">
+      <c r="F25" s="160"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="156"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="175" t="s">
         <v>593</v>
       </c>
       <c r="B26" s="94"/>
       <c r="C26" s="94"/>
-      <c r="E26" s="201" t="s">
+      <c r="E26" s="162" t="s">
         <v>595</v>
       </c>
-      <c r="F26" s="202">
+      <c r="F26" s="163">
         <f>B3</f>
         <v>200</v>
       </c>
-      <c r="G26" s="203" t="s">
+      <c r="G26" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="195"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="218" t="s">
+      <c r="H26" s="156"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="175" t="s">
         <v>594</v>
       </c>
       <c r="B27" s="94">
@@ -10203,18 +11776,18 @@
       <c r="C27" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="201" t="s">
+      <c r="E27" s="162" t="s">
         <v>597</v>
       </c>
-      <c r="F27" s="202">
+      <c r="F27" s="163">
         <f>B7</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="G27" s="203"/>
-      <c r="H27" s="195"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="218" t="s">
+      <c r="G27" s="164"/>
+      <c r="H27" s="156"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="175" t="s">
         <v>596</v>
       </c>
       <c r="B28" s="94">
@@ -10222,18 +11795,18 @@
         <v>0.51282051282051277</v>
       </c>
       <c r="C28" s="94"/>
-      <c r="E28" s="201" t="s">
+      <c r="E28" s="162" t="s">
         <v>569</v>
       </c>
-      <c r="F28" s="202" t="str">
+      <c r="F28" s="163" t="str">
         <f>B13</f>
         <v>ISHB 300@619N/M</v>
       </c>
-      <c r="G28" s="203"/>
-      <c r="H28" s="195"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="218" t="s">
+      <c r="G28" s="164"/>
+      <c r="H28" s="156"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="175" t="s">
         <v>598</v>
       </c>
       <c r="B29" s="94">
@@ -10243,28 +11816,28 @@
       <c r="C29" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="206" t="s">
+      <c r="E29" s="167" t="s">
         <v>551</v>
       </c>
-      <c r="F29" s="207">
+      <c r="F29" s="168">
         <f>F2</f>
         <v>65.159252550108604</v>
       </c>
-      <c r="G29" s="208" t="s">
+      <c r="G29" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="195"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="218" t="s">
+      <c r="H29" s="156"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="175" t="s">
         <v>610</v>
       </c>
       <c r="B30" s="94"/>
       <c r="C30" s="94"/>
-      <c r="H30" s="195"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="218" t="s">
+      <c r="H30" s="156"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="175" t="s">
         <v>611</v>
       </c>
       <c r="B31" s="94">
@@ -10274,19 +11847,19 @@
       <c r="C31" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="195"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="204"/>
-      <c r="B32" s="205"/>
-      <c r="C32" s="205"/>
-      <c r="D32" s="205"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="205"/>
-      <c r="H32" s="209"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="H31" s="156"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="165"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="170"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C34" s="92" t="s">
         <v>128</v>
       </c>
@@ -10306,32 +11879,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C568A304-D02C-4CB5-B2A6-A861ABC2339C}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="43" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="56"/>
+    <col min="3" max="4" width="9.08984375" style="56"/>
     <col min="5" max="5" width="37" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="56" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.109375" style="56"/>
+    <col min="6" max="6" width="12.90625" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.08984375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="220" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="231" t="s">
         <v>612</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="222"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="233"/>
       <c r="K1" s="54"/>
       <c r="L1" s="54"/>
       <c r="M1" s="54"/>
@@ -10339,560 +11912,560 @@
       <c r="O1" s="54"/>
       <c r="P1" s="54"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="223" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="177" t="s">
         <v>613</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="E2" s="225" t="s">
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="E2" s="179" t="s">
         <v>614</v>
       </c>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="I2" s="226"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="227" t="s">
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="I2" s="180"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="181" t="s">
         <v>615</v>
       </c>
-      <c r="B3" s="224">
+      <c r="B3" s="178">
         <v>16</v>
       </c>
-      <c r="C3" s="224" t="s">
+      <c r="C3" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="224" t="s">
+      <c r="E3" s="178" t="s">
         <v>616</v>
       </c>
-      <c r="F3" s="224">
+      <c r="F3" s="178">
         <f>0.2/100*(B7*C7)</f>
         <v>451.25</v>
       </c>
-      <c r="G3" s="224" t="s">
+      <c r="G3" s="178" t="s">
         <v>617</v>
       </c>
-      <c r="I3" s="226"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="227" t="s">
+      <c r="I3" s="180"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="181" t="s">
         <v>618</v>
       </c>
-      <c r="B4" s="224">
+      <c r="B4" s="178">
         <v>0.6</v>
       </c>
-      <c r="C4" s="224" t="s">
+      <c r="C4" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="I4" s="226"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="227" t="s">
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="I4" s="180"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="181" t="s">
         <v>619</v>
       </c>
-      <c r="B5" s="224">
+      <c r="B5" s="178">
         <f>B3+B4</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="C5" s="224" t="s">
+      <c r="C5" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="224" t="s">
+      <c r="E5" s="178" t="s">
         <v>620</v>
       </c>
-      <c r="F5" s="224">
+      <c r="F5" s="178">
         <f>2*((B7-50-50)+(C7-50-50))</f>
         <v>1500</v>
       </c>
-      <c r="G5" s="224" t="s">
+      <c r="G5" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="226"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="227" t="s">
+      <c r="I5" s="180"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="181" t="s">
         <v>621</v>
       </c>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="178" t="s">
         <v>520</v>
       </c>
-      <c r="C6" s="224" t="s">
+      <c r="C6" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="224" t="s">
+      <c r="E6" s="178" t="s">
         <v>622</v>
       </c>
-      <c r="F6" s="224">
+      <c r="F6" s="178">
         <f>F5/4</f>
         <v>375</v>
       </c>
-      <c r="G6" s="224" t="s">
+      <c r="G6" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="224" t="s">
+      <c r="H6" s="178" t="s">
         <v>623</v>
       </c>
-      <c r="I6" s="226"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="227"/>
-      <c r="B7" s="224">
+      <c r="I6" s="180"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="181"/>
+      <c r="B7" s="178">
         <v>475</v>
       </c>
-      <c r="C7" s="228">
+      <c r="C7" s="182">
         <v>475</v>
       </c>
-      <c r="D7" s="228" t="s">
+      <c r="D7" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="224" t="s">
+      <c r="E7" s="178" t="s">
         <v>624</v>
       </c>
-      <c r="F7" s="224">
+      <c r="F7" s="178">
         <f>0.25*3.14*8^2</f>
         <v>50.24</v>
       </c>
-      <c r="G7" s="224" t="s">
+      <c r="G7" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="I7" s="226"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="227" t="s">
+      <c r="I7" s="180"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="181" t="s">
         <v>625</v>
       </c>
-      <c r="B8" s="224">
+      <c r="B8" s="178">
         <v>950</v>
       </c>
-      <c r="C8" s="224" t="s">
+      <c r="C8" s="178" t="s">
         <v>626</v>
       </c>
-      <c r="E8" s="224" t="s">
+      <c r="E8" s="178" t="s">
         <v>627</v>
       </c>
-      <c r="F8" s="224">
+      <c r="F8" s="178">
         <f>F7*F5</f>
         <v>75360</v>
       </c>
-      <c r="G8" s="224" t="s">
+      <c r="G8" s="178" t="s">
         <v>617</v>
       </c>
-      <c r="I8" s="226"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="227" t="s">
+      <c r="I8" s="180"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="181" t="s">
         <v>628</v>
       </c>
-      <c r="B9" s="224">
+      <c r="B9" s="178">
         <v>25</v>
       </c>
-      <c r="C9" s="224" t="s">
+      <c r="C9" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="224" t="s">
+      <c r="E9" s="178" t="s">
         <v>629</v>
       </c>
-      <c r="F9" s="224">
+      <c r="F9" s="178">
         <f>FLOOR(F8/F3,10)</f>
         <v>160</v>
       </c>
-      <c r="G9" s="224" t="s">
+      <c r="G9" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="226"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="227" t="s">
+      <c r="I9" s="180"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="181" t="s">
         <v>630</v>
       </c>
-      <c r="B10" s="224">
+      <c r="B10" s="178">
         <v>16</v>
       </c>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="224" t="s">
+      <c r="E10" s="178" t="s">
         <v>631</v>
       </c>
-      <c r="F10" s="224">
+      <c r="F10" s="178">
         <f>MIN(F9,0.5*B7)</f>
         <v>160</v>
       </c>
-      <c r="G10" s="224" t="s">
+      <c r="G10" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="226"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="227" t="s">
+      <c r="I10" s="180"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="181" t="s">
         <v>632</v>
       </c>
-      <c r="B11" s="224">
+      <c r="B11" s="178">
         <f>8</f>
         <v>8</v>
       </c>
-      <c r="C11" s="224" t="s">
+      <c r="C11" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="226"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="227" t="s">
+      <c r="I11" s="180"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="181" t="s">
         <v>633</v>
       </c>
-      <c r="B12" s="224">
+      <c r="B12" s="178">
         <v>50</v>
       </c>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="225" t="s">
+      <c r="E12" s="179" t="s">
         <v>634</v>
       </c>
-      <c r="F12" s="224" t="s">
+      <c r="F12" s="178" t="s">
         <v>635</v>
       </c>
-      <c r="G12" s="224"/>
-      <c r="I12" s="226"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="227" t="s">
+      <c r="G12" s="178"/>
+      <c r="I12" s="180"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="181" t="s">
         <v>636</v>
       </c>
-      <c r="B13" s="224">
+      <c r="B13" s="178">
         <v>6</v>
       </c>
-      <c r="C13" s="224"/>
-      <c r="E13" s="224" t="s">
+      <c r="C13" s="178"/>
+      <c r="E13" s="178" t="s">
         <v>637</v>
       </c>
-      <c r="F13" s="224">
+      <c r="F13" s="178">
         <f>3*B7</f>
         <v>1425</v>
       </c>
-      <c r="G13" s="224"/>
-      <c r="I13" s="226"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="227" t="s">
+      <c r="G13" s="178"/>
+      <c r="I13" s="180"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="181" t="s">
         <v>638</v>
       </c>
-      <c r="B14" s="224">
+      <c r="B14" s="178">
         <v>190</v>
       </c>
-      <c r="C14" s="224"/>
-      <c r="E14" s="224" t="s">
+      <c r="C14" s="178"/>
+      <c r="E14" s="178" t="s">
         <v>639</v>
       </c>
-      <c r="F14" s="224">
+      <c r="F14" s="178">
         <f>0.6/100*(B7*C7*1)</f>
         <v>1353.75</v>
       </c>
-      <c r="G14" s="224" t="s">
+      <c r="G14" s="178" t="s">
         <v>640</v>
       </c>
-      <c r="I14" s="226"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="227"/>
-      <c r="B15" s="224"/>
-      <c r="E15" s="224" t="s">
+      <c r="I14" s="180"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="181"/>
+      <c r="B15" s="178"/>
+      <c r="E15" s="178" t="s">
         <v>641</v>
       </c>
-      <c r="F15" s="224">
+      <c r="F15" s="178">
         <v>8</v>
       </c>
-      <c r="G15" s="224" t="s">
+      <c r="G15" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="226"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="223" t="s">
+      <c r="I15" s="180"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="177" t="s">
         <v>642</v>
       </c>
-      <c r="B16" s="224"/>
-      <c r="E16" s="224" t="s">
+      <c r="B16" s="178"/>
+      <c r="E16" s="178" t="s">
         <v>624</v>
       </c>
-      <c r="F16" s="224">
+      <c r="F16" s="178">
         <f>3.14*0.25*F15*F15</f>
         <v>50.24</v>
       </c>
-      <c r="G16" s="224" t="s">
+      <c r="G16" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="I16" s="226"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="227" t="s">
+      <c r="I16" s="180"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="181" t="s">
         <v>643</v>
       </c>
-      <c r="B17" s="224">
+      <c r="B17" s="178">
         <f>B5/(B7/1000)</f>
         <v>34.947368421052637</v>
       </c>
-      <c r="E17" s="224" t="s">
+      <c r="E17" s="178" t="s">
         <v>644</v>
       </c>
-      <c r="F17" s="224">
+      <c r="F17" s="178">
         <f>3.14*(B7-50-50-F15/2)</f>
         <v>1164.94</v>
       </c>
-      <c r="G17" s="224" t="s">
+      <c r="G17" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="I17" s="226"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="229" t="str">
+      <c r="I17" s="180"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="183" t="str">
         <f>IF(B17&gt;12,"Design for Long Column Pile","the section is short column")</f>
         <v>Design for Long Column Pile</v>
       </c>
-      <c r="B18" s="224"/>
-      <c r="E18" s="224" t="s">
+      <c r="B18" s="178"/>
+      <c r="E18" s="178" t="s">
         <v>645</v>
       </c>
-      <c r="F18" s="224">
+      <c r="F18" s="178">
         <f>F17*F16</f>
         <v>58526.585600000006</v>
       </c>
-      <c r="G18" s="224" t="s">
+      <c r="G18" s="178" t="s">
         <v>617</v>
       </c>
-      <c r="I18" s="226"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="227" t="s">
+      <c r="I18" s="180"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="181" t="s">
         <v>646</v>
       </c>
-      <c r="B19" s="224">
+      <c r="B19" s="178">
         <v>0.51</v>
       </c>
-      <c r="E19" s="224" t="s">
+      <c r="E19" s="178" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="224">
+      <c r="F19" s="178">
         <f>ROUNDUP(F18/F14,-1.9)</f>
         <v>50</v>
       </c>
-      <c r="G19" s="224" t="s">
+      <c r="G19" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="226"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="227" t="s">
+      <c r="I19" s="180"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="181" t="s">
         <v>647</v>
       </c>
-      <c r="B20" s="224">
+      <c r="B20" s="178">
         <f>B8/B19</f>
         <v>1862.7450980392157</v>
       </c>
-      <c r="I20" s="226"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="230"/>
-      <c r="E21" s="225" t="s">
+      <c r="I20" s="180"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="184"/>
+      <c r="E21" s="179" t="s">
         <v>648</v>
       </c>
-      <c r="F21" s="224"/>
-      <c r="G21" s="224"/>
-      <c r="I21" s="226"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="223" t="s">
+      <c r="F21" s="178"/>
+      <c r="G21" s="178"/>
+      <c r="I21" s="180"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="177" t="s">
         <v>649</v>
       </c>
-      <c r="B22" s="224"/>
-      <c r="C22" s="224"/>
-      <c r="E22" s="224" t="s">
+      <c r="B22" s="178"/>
+      <c r="C22" s="178"/>
+      <c r="E22" s="178" t="s">
         <v>650</v>
       </c>
-      <c r="F22" s="224">
+      <c r="F22" s="178">
         <f>0.6/100*(B7*C7*1)</f>
         <v>1353.75</v>
       </c>
-      <c r="G22" s="224" t="s">
+      <c r="G22" s="178" t="s">
         <v>640</v>
       </c>
-      <c r="I22" s="226"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="227" t="s">
+      <c r="I22" s="180"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="181" t="s">
         <v>651</v>
       </c>
-      <c r="B23" s="224">
+      <c r="B23" s="178">
         <f>B20</f>
         <v>1862.7450980392157</v>
       </c>
-      <c r="C23" s="224" t="s">
+      <c r="C23" s="178" t="s">
         <v>626</v>
       </c>
-      <c r="E23" s="224" t="s">
+      <c r="E23" s="178" t="s">
         <v>652</v>
       </c>
-      <c r="F23" s="224">
+      <c r="F23" s="178">
         <f>F8</f>
         <v>75360</v>
       </c>
-      <c r="G23" s="224" t="s">
+      <c r="G23" s="178" t="s">
         <v>640</v>
       </c>
-      <c r="I23" s="226"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="227" t="s">
+      <c r="I23" s="180"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="181" t="s">
         <v>653</v>
       </c>
-      <c r="B24" s="224">
+      <c r="B24" s="178">
         <f>B7*C7</f>
         <v>225625</v>
       </c>
-      <c r="C24" s="224" t="s">
+      <c r="C24" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="E24" s="224" t="s">
+      <c r="E24" s="178" t="s">
         <v>654</v>
       </c>
-      <c r="F24" s="224">
+      <c r="F24" s="178">
         <f>ROUNDUP(F23/F22,-1)</f>
         <v>60</v>
       </c>
-      <c r="G24" s="224" t="s">
+      <c r="G24" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="I24" s="226"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="227" t="s">
+      <c r="I24" s="180"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="181" t="s">
         <v>207</v>
       </c>
-      <c r="B25" s="224">
+      <c r="B25" s="178">
         <f>(B23*1000-B13*B24)/(B13+B14)</f>
         <v>2596.9137655062023</v>
       </c>
-      <c r="C25" s="224" t="s">
+      <c r="C25" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="E25" s="224" t="s">
+      <c r="E25" s="178" t="s">
         <v>631</v>
       </c>
-      <c r="F25" s="224">
+      <c r="F25" s="178">
         <f>F24</f>
         <v>60</v>
       </c>
-      <c r="G25" s="224" t="s">
+      <c r="G25" s="178" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="226"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="227" t="s">
+      <c r="I25" s="180"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="181" t="s">
         <v>655</v>
       </c>
-      <c r="B26" s="224"/>
-      <c r="C26" s="224"/>
-      <c r="E26" s="224"/>
-      <c r="F26" s="224"/>
-      <c r="G26" s="224"/>
-      <c r="I26" s="226"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="229" t="str">
+      <c r="B26" s="178"/>
+      <c r="C26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
+      <c r="G26" s="178"/>
+      <c r="I26" s="180"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="183" t="str">
         <f>IF(B5&lt;30*B7/1000,"Choose 0.8%of Gross area","don’t Choose 0.8% of Gross area")</f>
         <v>don’t Choose 0.8% of Gross area</v>
       </c>
-      <c r="B27" s="224"/>
-      <c r="C27" s="224"/>
-      <c r="E27" s="224" t="s">
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="E27" s="178" t="s">
         <v>656</v>
       </c>
-      <c r="F27" s="224"/>
-      <c r="G27" s="224"/>
-      <c r="I27" s="226"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="227" t="s">
+      <c r="F27" s="178"/>
+      <c r="G27" s="178"/>
+      <c r="I27" s="180"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="181" t="s">
         <v>657</v>
       </c>
-      <c r="B28" s="224">
+      <c r="B28" s="178">
         <f>0.8/100*(B7*C7)</f>
         <v>1805</v>
       </c>
-      <c r="C28" s="224" t="s">
+      <c r="C28" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="E28" s="224" t="s">
+      <c r="E28" s="178" t="s">
         <v>658</v>
       </c>
-      <c r="F28" s="224"/>
-      <c r="G28" s="224"/>
-      <c r="I28" s="226"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="227" t="s">
+      <c r="F28" s="178"/>
+      <c r="G28" s="178"/>
+      <c r="I28" s="180"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="181" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="224">
+      <c r="B29" s="178">
         <f>MAX(B28,B25)</f>
         <v>2596.9137655062023</v>
       </c>
-      <c r="C29" s="224" t="s">
+      <c r="C29" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="I29" s="226"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="227" t="s">
+      <c r="I29" s="180"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="181" t="s">
         <v>659</v>
       </c>
-      <c r="B30" s="224">
+      <c r="B30" s="178">
         <f>0.25*3.14*B10^2</f>
         <v>200.96</v>
       </c>
-      <c r="C30" s="224" t="s">
+      <c r="C30" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="I30" s="226"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="227" t="s">
+      <c r="I30" s="180"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="181" t="s">
         <v>660</v>
       </c>
-      <c r="B31" s="224">
+      <c r="B31" s="178">
         <f>ROUNDUP(B29/B30,0)</f>
         <v>13</v>
       </c>
-      <c r="C31" s="224"/>
-      <c r="I31" s="226"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="227" t="s">
+      <c r="C31" s="178"/>
+      <c r="I31" s="180"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="181" t="s">
         <v>661</v>
       </c>
-      <c r="B32" s="224">
+      <c r="B32" s="178">
         <f>B31*B30</f>
         <v>2612.48</v>
       </c>
-      <c r="C32" s="224" t="s">
+      <c r="C32" s="178" t="s">
         <v>183</v>
       </c>
-      <c r="I32" s="226"/>
-    </row>
-    <row r="33" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="231"/>
-      <c r="B33" s="232"/>
-      <c r="C33" s="232"/>
-      <c r="D33" s="232"/>
-      <c r="E33" s="232"/>
-      <c r="F33" s="232"/>
-      <c r="G33" s="232"/>
-      <c r="H33" s="232"/>
-      <c r="I33" s="233"/>
+      <c r="I32" s="180"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="185"/>
+      <c r="B33" s="186"/>
+      <c r="C33" s="186"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10910,26 +12483,26 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="9.109375" style="54"/>
-    <col min="6" max="6" width="33.5546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.109375" style="54"/>
-    <col min="10" max="10" width="4.109375" style="54" customWidth="1"/>
-    <col min="11" max="11" width="35.109375" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.08984375" style="54"/>
+    <col min="6" max="6" width="33.54296875" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" style="54" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.08984375" style="54"/>
+    <col min="10" max="10" width="4.08984375" style="54" customWidth="1"/>
+    <col min="11" max="11" width="35.08984375" style="54" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="54" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7" style="54" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" style="54" customWidth="1"/>
+    <col min="14" max="14" width="8.453125" style="54" customWidth="1"/>
     <col min="15" max="15" width="20" style="54" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="37.44140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.109375" style="54"/>
+    <col min="16" max="16" width="38.08984375" style="54" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="37.453125" style="54" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.08984375" style="54"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="55" t="s">
         <v>94</v>
       </c>
@@ -10951,7 +12524,7 @@
       <c r="O2" s="56"/>
       <c r="P2" s="56"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
         <v>96</v>
       </c>
@@ -10981,13 +12554,13 @@
       <c r="L3" s="56"/>
       <c r="M3" s="56"/>
       <c r="N3" s="56"/>
-      <c r="O3" s="141" t="s">
+      <c r="O3" s="191" t="s">
         <v>99</v>
       </c>
-      <c r="P3" s="142"/>
+      <c r="P3" s="192"/>
       <c r="Q3" s="58"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
         <v>100</v>
       </c>
@@ -11030,7 +12603,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>105</v>
       </c>
@@ -11069,7 +12642,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
         <v>109</v>
       </c>
@@ -11101,7 +12674,7 @@
       <c r="O6" s="59"/>
       <c r="P6" s="61"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
         <v>111</v>
       </c>
@@ -11130,7 +12703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>113</v>
       </c>
@@ -11164,7 +12737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
         <v>115</v>
       </c>
@@ -11195,7 +12768,7 @@
       <c r="O9" s="59"/>
       <c r="P9" s="61"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>118</v>
       </c>
@@ -11223,7 +12796,7 @@
         <v>Provid 2 legged  8 mm bars at  300 mm c/c</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>120</v>
       </c>
@@ -11261,7 +12834,7 @@
       <c r="O11" s="56"/>
       <c r="P11" s="56"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>126</v>
       </c>
@@ -11295,7 +12868,7 @@
       <c r="O12" s="66"/>
       <c r="P12" s="66"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="56"/>
       <c r="B13" s="56"/>
       <c r="C13" s="56"/>
@@ -11320,7 +12893,7 @@
       <c r="O13" s="66"/>
       <c r="P13" s="66"/>
     </row>
-    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="55" t="s">
         <v>130</v>
       </c>
@@ -11349,7 +12922,7 @@
       <c r="O14" s="68"/>
       <c r="P14" s="68"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="56" t="s">
         <v>133</v>
       </c>
@@ -11385,7 +12958,7 @@
         <v>D = 700 mm</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>134</v>
       </c>
@@ -11417,7 +12990,7 @@
       <c r="O16" s="68"/>
       <c r="P16" s="68"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>137</v>
       </c>
@@ -11449,7 +13022,7 @@
       <c r="O17" s="68"/>
       <c r="P17" s="68"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>140</v>
       </c>
@@ -11479,7 +13052,7 @@
       <c r="O18" s="68"/>
       <c r="P18" s="68"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="56" t="s">
         <v>142</v>
       </c>
@@ -11509,7 +13082,7 @@
       <c r="O19" s="68"/>
       <c r="P19" s="68"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="56"/>
       <c r="B20" s="56"/>
       <c r="C20" s="56"/>
@@ -11533,7 +13106,7 @@
       <c r="O20" s="68"/>
       <c r="P20" s="68"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="56" t="s">
         <v>144</v>
       </c>
@@ -11570,7 +13143,7 @@
         <v>Provide 25  mm Dia , 5  No.of Bars</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
         <v>145</v>
       </c>
@@ -11598,7 +13171,7 @@
       <c r="O22" s="68"/>
       <c r="P22" s="68"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>146</v>
       </c>
@@ -11623,7 +13196,7 @@
       <c r="O23" s="68"/>
       <c r="P23" s="68"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="56"/>
       <c r="B24" s="56"/>
       <c r="C24" s="56"/>
@@ -11645,7 +13218,7 @@
         <v>Provid 2 legged  8 mm bars at  300 mm c/c</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="57" t="s">
         <v>147</v>
       </c>
@@ -11672,7 +13245,7 @@
       <c r="O25" s="68"/>
       <c r="P25" s="68"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>149</v>
       </c>
@@ -11704,7 +13277,7 @@
       <c r="O26" s="68"/>
       <c r="P26" s="68"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>152</v>
       </c>
@@ -11729,7 +13302,7 @@
       <c r="O27" s="68"/>
       <c r="P27" s="68"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="56" t="s">
         <v>153</v>
       </c>
@@ -11764,7 +13337,7 @@
         <v>B = 350 mm</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="56" t="s">
         <v>156</v>
       </c>
@@ -11796,7 +13369,7 @@
       <c r="O29" s="68"/>
       <c r="P29" s="68"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="56"/>
       <c r="B30" s="56"/>
       <c r="C30" s="56"/>
@@ -11814,7 +13387,7 @@
       <c r="O30" s="68"/>
       <c r="P30" s="68"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="56" t="s">
         <v>158</v>
       </c>
@@ -11837,7 +13410,7 @@
       <c r="M31" s="56"/>
       <c r="N31" s="56"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="str">
         <f>IF(B31&gt;B18,"CHANGE d or L/D","Okay")</f>
         <v>Okay</v>
@@ -11873,39 +13446,39 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" style="54" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="54"/>
-    <col min="4" max="4" width="25.5546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.88671875" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.44140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.08984375" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.90625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="54"/>
+    <col min="4" max="4" width="25.54296875" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.90625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" style="54" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" style="54" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="54" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="54" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" style="54"/>
-    <col min="13" max="13" width="23.109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="54"/>
+    <col min="9" max="9" width="10.36328125" style="54" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.453125" style="54" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.08984375" style="54"/>
+    <col min="13" max="13" width="23.08984375" style="54" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.08984375" style="54"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="193" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="72" t="s">
         <v>160</v>
       </c>
@@ -11916,12 +13489,12 @@
       </c>
       <c r="H4" s="73"/>
       <c r="I4" s="73"/>
-      <c r="J4" s="144" t="s">
+      <c r="J4" s="194" t="s">
         <v>162</v>
       </c>
-      <c r="K4" s="145"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K4" s="195"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
         <v>163</v>
       </c>
@@ -11941,13 +13514,13 @@
       <c r="I5" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="J5" s="146" t="str">
+      <c r="J5" s="196" t="str">
         <f>IF(B17&gt;750, "Its Not Okay provide Side reinforcement on both sides The total area of such reinforcement shall be not less than 0.1 percent of the web area and shall be spacing not exceeding 300 mm", " No need of Side Reinforcement ")</f>
         <v xml:space="preserve"> No need of Side Reinforcement </v>
       </c>
-      <c r="K5" s="147"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K5" s="197"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="73" t="s">
         <v>166</v>
       </c>
@@ -11957,11 +13530,11 @@
       <c r="C6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="148" t="s">
+      <c r="D6" s="198" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="149"/>
-      <c r="F6" s="150"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="200"/>
       <c r="G6" s="73" t="s">
         <v>168</v>
       </c>
@@ -11973,7 +13546,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="73" t="s">
         <v>170</v>
       </c>
@@ -12001,7 +13574,7 @@
       </c>
       <c r="I7" s="73"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="73" t="s">
         <v>173</v>
       </c>
@@ -12030,7 +13603,7 @@
       </c>
       <c r="I8" s="73"/>
     </row>
-    <row r="9" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="73" t="s">
         <v>176</v>
       </c>
@@ -12052,7 +13625,7 @@
         <v>provide 1 - 12mm dia bar</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
         <v>177</v>
       </c>
@@ -12068,7 +13641,7 @@
       <c r="H10" s="73"/>
       <c r="I10" s="73"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
         <v>179</v>
       </c>
@@ -12098,7 +13671,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="73" t="s">
         <v>181</v>
       </c>
@@ -12122,7 +13695,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="73" t="s">
         <v>184</v>
       </c>
@@ -12146,7 +13719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G14" s="73" t="s">
         <v>187</v>
       </c>
@@ -12158,7 +13731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="72" t="s">
         <v>188</v>
       </c>
@@ -12174,7 +13747,7 @@
       </c>
       <c r="I15" s="73"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="73" t="s">
         <v>189</v>
       </c>
@@ -12193,7 +13766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="73" t="s">
         <v>191</v>
       </c>
@@ -12218,7 +13791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="73" t="s">
         <v>193</v>
       </c>
@@ -12244,7 +13817,7 @@
       <c r="H18" s="73"/>
       <c r="I18" s="73"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="73" t="s">
         <v>195</v>
       </c>
@@ -12276,7 +13849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="73" t="s">
         <v>196</v>
       </c>
@@ -12308,7 +13881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="73" t="s">
         <v>198</v>
       </c>
@@ -12334,7 +13907,7 @@
       </c>
       <c r="I21" s="73"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" s="73" t="s">
         <v>200</v>
       </c>
@@ -12349,7 +13922,7 @@
       <c r="H22" s="73"/>
       <c r="I22" s="73"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="72" t="s">
         <v>201</v>
       </c>
@@ -12376,7 +13949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="73"/>
       <c r="B24" s="73"/>
       <c r="C24" s="85"/>
@@ -12391,7 +13964,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="73" t="s">
         <v>206</v>
       </c>
@@ -12418,7 +13991,7 @@
       <c r="H25" s="73"/>
       <c r="I25" s="73"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="73" t="s">
         <v>209</v>
       </c>
@@ -12450,7 +14023,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="73" t="s">
         <v>212</v>
       </c>
@@ -12480,7 +14053,7 @@
       </c>
       <c r="I27" s="73"/>
     </row>
-    <row r="28" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="73" t="s">
         <v>214</v>
       </c>
@@ -12504,7 +14077,7 @@
         <v>provide 3 - 20mm dia bar</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="73" t="s">
         <v>216</v>
       </c>
@@ -12521,7 +14094,7 @@
       </c>
       <c r="F29" s="73"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="73" t="s">
         <v>218</v>
       </c>
@@ -12548,7 +14121,7 @@
       <c r="H30" s="73"/>
       <c r="I30" s="73"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D31" s="73" t="s">
         <v>221</v>
       </c>
@@ -12568,7 +14141,7 @@
       </c>
       <c r="I31" s="73"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D32" s="73" t="s">
         <v>223</v>
       </c>
@@ -12586,7 +14159,7 @@
       </c>
       <c r="I32" s="73"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="72" t="s">
         <v>225</v>
       </c>
@@ -12613,7 +14186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="73" t="s">
         <v>39</v>
       </c>
@@ -12633,7 +14206,7 @@
       </c>
       <c r="I34" s="73"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="73" t="s">
         <v>230</v>
       </c>
@@ -12646,13 +14219,13 @@
       </c>
       <c r="H35" s="91"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="73"/>
       <c r="B36" s="73"/>
       <c r="C36" s="73"/>
       <c r="H36" s="91"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="72" t="s">
         <v>231</v>
       </c>
@@ -12660,7 +14233,7 @@
       <c r="C37" s="73"/>
       <c r="H37" s="91"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="73" t="s">
         <v>232</v>
       </c>
@@ -12672,16 +14245,16 @@
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="B39" s="146" t="str">
+      <c r="B39" s="196" t="str">
         <f>IF(B38&gt;B34,"THE SECTION IS SINGLY REINFORCED SECTION","THE SECTION IS DOUBLEY REINFORCED SECTION")</f>
         <v>THE SECTION IS DOUBLEY REINFORCED SECTION</v>
       </c>
-      <c r="C39" s="147"/>
-      <c r="D39" s="147"/>
+      <c r="C39" s="197"/>
+      <c r="D39" s="197"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12704,43 +14277,43 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="31" style="92" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="92" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="92" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="92" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="92"/>
-    <col min="7" max="7" width="23.6640625" style="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="92" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" style="92" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" style="92" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="92"/>
+    <col min="7" max="7" width="23.6328125" style="92" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19" style="92" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="92" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="92"/>
+    <col min="10" max="10" width="9.08984375" style="92"/>
     <col min="11" max="11" width="21" style="92" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="92"/>
+    <col min="12" max="16384" width="9.08984375" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="157" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="202" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="93" t="s">
         <v>160</v>
       </c>
@@ -12757,7 +14330,7 @@
       <c r="L2" s="94"/>
       <c r="M2" s="94"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="94" t="s">
         <v>234</v>
       </c>
@@ -12776,7 +14349,7 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="94" t="s">
         <v>235</v>
       </c>
@@ -12784,11 +14357,11 @@
         <v>20</v>
       </c>
       <c r="C4" s="95"/>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="203" t="s">
         <v>236</v>
       </c>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
       <c r="G4" s="94"/>
       <c r="H4" s="94"/>
       <c r="I4" s="94"/>
@@ -12797,7 +14370,7 @@
       <c r="L4" s="94"/>
       <c r="M4" s="94"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="94" t="s">
         <v>237</v>
       </c>
@@ -12825,7 +14398,7 @@
       <c r="L5" s="94"/>
       <c r="M5" s="94"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="94" t="s">
         <v>240</v>
       </c>
@@ -12833,11 +14406,11 @@
         <v>15</v>
       </c>
       <c r="C6" s="95"/>
-      <c r="D6" s="154" t="s">
+      <c r="D6" s="204" t="s">
         <v>241</v>
       </c>
-      <c r="E6" s="154"/>
-      <c r="F6" s="154"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="204"/>
       <c r="G6" s="94"/>
       <c r="H6" s="94" t="s">
         <v>164</v>
@@ -12853,7 +14426,7 @@
       <c r="L6" s="94"/>
       <c r="M6" s="94"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="94" t="s">
         <v>242</v>
       </c>
@@ -12887,7 +14460,7 @@
       <c r="L7" s="94"/>
       <c r="M7" s="94"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="94" t="s">
         <v>244</v>
       </c>
@@ -12915,7 +14488,7 @@
       <c r="L8" s="94"/>
       <c r="M8" s="94"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="94" t="s">
         <v>247</v>
       </c>
@@ -12926,11 +14499,11 @@
       <c r="D9" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="205" t="str">
         <f>IF(F7/D7&gt;=2,"IT IS ONE WAY SLAB","IT IS TWO WAY SLAB")</f>
         <v>IT IS ONE WAY SLAB</v>
       </c>
-      <c r="F9" s="152"/>
+      <c r="F9" s="205"/>
       <c r="G9" s="94"/>
       <c r="H9" s="96" t="s">
         <v>175</v>
@@ -12944,7 +14517,7 @@
       <c r="L9" s="94"/>
       <c r="M9" s="94"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="94" t="s">
         <v>248</v>
       </c>
@@ -12963,7 +14536,7 @@
       <c r="L10" s="94"/>
       <c r="M10" s="94"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="94" t="s">
         <v>249</v>
       </c>
@@ -12982,7 +14555,7 @@
       <c r="L11" s="94"/>
       <c r="M11" s="94"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D12" s="94"/>
       <c r="E12" s="94"/>
       <c r="F12" s="94"/>
@@ -12994,28 +14567,28 @@
       <c r="L12" s="94"/>
       <c r="M12" s="94"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="93" t="s">
         <v>250</v>
       </c>
       <c r="B13" s="94"/>
       <c r="C13" s="95"/>
-      <c r="D13" s="151" t="s">
+      <c r="D13" s="203" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="151" t="s">
+      <c r="E13" s="203"/>
+      <c r="F13" s="203"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="203" t="s">
         <v>220</v>
       </c>
-      <c r="I13" s="151"/>
-      <c r="J13" s="151"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="203"/>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
       <c r="M13" s="94"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="94" t="s">
         <v>252</v>
       </c>
@@ -13048,7 +14621,7 @@
       <c r="L14" s="94"/>
       <c r="M14" s="94"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="94" t="s">
         <v>254</v>
       </c>
@@ -13081,7 +14654,7 @@
       <c r="L15" s="94"/>
       <c r="M15" s="94"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="94" t="s">
         <v>255</v>
       </c>
@@ -13111,7 +14684,7 @@
       </c>
       <c r="M16" s="94"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="96" t="s">
         <v>257</v>
       </c>
@@ -13122,11 +14695,11 @@
       <c r="C17" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="151" t="s">
+      <c r="D17" s="203" t="s">
         <v>258</v>
       </c>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
+      <c r="E17" s="203"/>
+      <c r="F17" s="203"/>
       <c r="G17" s="94"/>
       <c r="H17" s="94" t="s">
         <v>259</v>
@@ -13141,7 +14714,7 @@
       </c>
       <c r="M17" s="94"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D18" s="94" t="s">
         <v>46</v>
       </c>
@@ -13164,7 +14737,7 @@
       <c r="L18" s="94"/>
       <c r="M18" s="94"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="93" t="s">
         <v>261</v>
       </c>
@@ -13173,12 +14746,12 @@
       <c r="D19" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="E19" s="152" t="str">
+      <c r="E19" s="205" t="str">
         <f>IF(E18&gt;E14,"UNDER REINFORCED SECTION","OVER REINFORCED SECTION")</f>
         <v>UNDER REINFORCED SECTION</v>
       </c>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="205"/>
       <c r="H19" s="94" t="s">
         <v>262</v>
       </c>
@@ -13190,7 +14763,7 @@
       <c r="L19" s="94"/>
       <c r="M19" s="94"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="94" t="s">
         <v>263</v>
       </c>
@@ -13212,7 +14785,7 @@
       <c r="L20" s="94"/>
       <c r="M20" s="94"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="94" t="s">
         <v>265</v>
       </c>
@@ -13223,10 +14796,10 @@
       <c r="C21" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="153" t="s">
+      <c r="D21" s="206" t="s">
         <v>266</v>
       </c>
-      <c r="E21" s="153"/>
+      <c r="E21" s="206"/>
       <c r="F21" s="94"/>
       <c r="G21" s="94"/>
       <c r="H21" s="94" t="s">
@@ -13248,7 +14821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A22" s="94" t="s">
         <v>268</v>
       </c>
@@ -13282,7 +14855,7 @@
       <c r="L22" s="94"/>
       <c r="M22" s="94"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A23" s="96" t="s">
         <v>270</v>
       </c>
@@ -13311,7 +14884,7 @@
       <c r="L23" s="94"/>
       <c r="M23" s="94"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D24" s="94"/>
       <c r="E24" s="94"/>
       <c r="F24" s="94"/>
@@ -13323,14 +14896,14 @@
       <c r="L24" s="94"/>
       <c r="M24" s="94"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A25" s="93" t="s">
         <v>273</v>
       </c>
-      <c r="B25" s="154" t="s">
+      <c r="B25" s="204" t="s">
         <v>274</v>
       </c>
-      <c r="C25" s="155"/>
+      <c r="C25" s="207"/>
       <c r="D25" s="99" t="s">
         <v>275</v>
       </c>
@@ -13344,7 +14917,7 @@
       <c r="L25" s="94"/>
       <c r="M25" s="94"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A26" s="94" t="s">
         <v>276</v>
       </c>
@@ -13371,7 +14944,7 @@
       <c r="L26" s="94"/>
       <c r="M26" s="94"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A27" s="94" t="s">
         <v>279</v>
       </c>
@@ -13398,7 +14971,7 @@
       <c r="L27" s="94"/>
       <c r="M27" s="94"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A28" s="94" t="s">
         <v>281</v>
       </c>
@@ -13433,7 +15006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" s="94" t="s">
         <v>282</v>
       </c>
@@ -13449,17 +15022,17 @@
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="94"/>
-      <c r="G29" s="151" t="s">
+      <c r="G29" s="203" t="s">
         <v>284</v>
       </c>
-      <c r="H29" s="151"/>
+      <c r="H29" s="203"/>
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
       <c r="K29" s="94"/>
       <c r="L29" s="94"/>
       <c r="M29" s="94"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="D30" s="94" t="s">
         <v>285</v>
       </c>
@@ -13484,7 +15057,7 @@
       <c r="L30" s="94"/>
       <c r="M30" s="94"/>
     </row>
-    <row r="31" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="D31" s="94" t="s">
         <v>22</v>
       </c>
@@ -13506,13 +15079,13 @@
         <v>272</v>
       </c>
       <c r="J31" s="94"/>
-      <c r="K31" s="156" t="s">
+      <c r="K31" s="201" t="s">
         <v>287</v>
       </c>
-      <c r="L31" s="156"/>
-      <c r="M31" s="156"/>
-    </row>
-    <row r="32" spans="1:18" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="L31" s="201"/>
+      <c r="M31" s="201"/>
+    </row>
+    <row r="32" spans="1:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D32" s="94" t="s">
         <v>288</v>
       </c>
@@ -13543,7 +15116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="4:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D33" s="94" t="s">
         <v>289</v>
       </c>
@@ -13574,7 +15147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="4:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D34" s="94" t="s">
         <v>292</v>
       </c>
@@ -13607,7 +15180,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D35" s="94" t="s">
         <v>294</v>
       </c>
@@ -13640,7 +15213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D36" s="94"/>
       <c r="E36" s="94"/>
       <c r="F36" s="94"/>
@@ -13659,7 +15232,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="4:13" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D37" s="94"/>
       <c r="E37" s="94"/>
       <c r="F37" s="94"/>
@@ -13678,7 +15251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D38" s="94"/>
       <c r="E38" s="94"/>
       <c r="F38" s="94"/>
@@ -13690,7 +15263,7 @@
       <c r="L38" s="94"/>
       <c r="M38" s="94"/>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D39" s="94"/>
       <c r="E39" s="94"/>
       <c r="F39" s="94"/>
@@ -13702,7 +15275,7 @@
       <c r="L39" s="94"/>
       <c r="M39" s="94"/>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D40" s="94"/>
       <c r="E40" s="94"/>
       <c r="F40" s="94"/>
@@ -13714,7 +15287,7 @@
       <c r="L40" s="94"/>
       <c r="M40" s="94"/>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D41" s="94"/>
       <c r="E41" s="94"/>
       <c r="F41" s="94"/>
@@ -13726,7 +15299,7 @@
       <c r="L41" s="94"/>
       <c r="M41" s="94"/>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D42" s="94"/>
       <c r="E42" s="94"/>
       <c r="F42" s="94"/>
@@ -13738,7 +15311,7 @@
       <c r="L42" s="94"/>
       <c r="M42" s="94"/>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
       <c r="F43" s="94"/>
@@ -13750,7 +15323,7 @@
       <c r="L43" s="94"/>
       <c r="M43" s="94"/>
     </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D44" s="94"/>
       <c r="E44" s="94"/>
       <c r="F44" s="94"/>
@@ -13762,7 +15335,7 @@
       <c r="L44" s="94"/>
       <c r="M44" s="94"/>
     </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D45" s="94"/>
       <c r="E45" s="94"/>
       <c r="F45" s="94"/>
@@ -13774,7 +15347,7 @@
       <c r="L45" s="94"/>
       <c r="M45" s="94"/>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D46" s="94"/>
       <c r="E46" s="94"/>
       <c r="F46" s="94"/>
@@ -13786,7 +15359,7 @@
       <c r="L46" s="94"/>
       <c r="M46" s="94"/>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D47" s="94"/>
       <c r="E47" s="94"/>
       <c r="F47" s="94"/>
@@ -13798,7 +15371,7 @@
       <c r="L47" s="94"/>
       <c r="M47" s="94"/>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D48" s="94"/>
       <c r="E48" s="94"/>
       <c r="F48" s="94"/>
@@ -13810,7 +15383,7 @@
       <c r="L48" s="94"/>
       <c r="M48" s="94"/>
     </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D49" s="94"/>
       <c r="E49" s="94"/>
       <c r="F49" s="94"/>
@@ -13822,7 +15395,7 @@
       <c r="L49" s="94"/>
       <c r="M49" s="94"/>
     </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="F50" s="94"/>
@@ -13858,45 +15431,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180FBCBF-662B-48AD-9E49-4439CC5F910A}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="88" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="102" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="102" customWidth="1"/>
-    <col min="3" max="4" width="9.109375" style="102"/>
-    <col min="5" max="5" width="26.88671875" style="102" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="102" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.109375" style="102"/>
-    <col min="9" max="9" width="25.6640625" style="102" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="102" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.109375" style="102"/>
-    <col min="13" max="13" width="29.109375" style="102" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="102" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.109375" style="102"/>
+    <col min="1" max="1" width="28.36328125" style="102" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" style="102" customWidth="1"/>
+    <col min="3" max="4" width="9.08984375" style="102"/>
+    <col min="5" max="5" width="26.90625" style="102" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" style="102" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.08984375" style="102"/>
+    <col min="9" max="9" width="25.6328125" style="102" customWidth="1"/>
+    <col min="10" max="10" width="9.36328125" style="102" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.08984375" style="102"/>
+    <col min="13" max="13" width="29.08984375" style="102" customWidth="1"/>
+    <col min="14" max="14" width="9.36328125" style="102" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.08984375" style="102"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F1" s="158" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F1" s="208" t="s">
         <v>298</v>
       </c>
-      <c r="G1" s="158"/>
-      <c r="H1" s="158"/>
-      <c r="I1" s="158"/>
-      <c r="J1" s="158"/>
-      <c r="K1" s="158"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G1" s="208"/>
+      <c r="H1" s="208"/>
+      <c r="I1" s="208"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="208"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="103" t="s">
         <v>299</v>
       </c>
@@ -13917,7 +15490,7 @@
       <c r="N4" s="104"/>
       <c r="O4" s="104"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="104" t="s">
         <v>303</v>
       </c>
@@ -13950,7 +15523,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="104" t="s">
         <v>308</v>
       </c>
@@ -13984,7 +15557,7 @@
       </c>
       <c r="O6" s="104"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="104" t="s">
         <v>120</v>
       </c>
@@ -14014,7 +15587,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="104" t="s">
         <v>313</v>
       </c>
@@ -14042,7 +15615,7 @@
         <v>safe</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="104" t="s">
         <v>105</v>
       </c>
@@ -14063,7 +15636,7 @@
       <c r="J9" s="104"/>
       <c r="K9" s="104"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="104" t="s">
         <v>109</v>
       </c>
@@ -14099,7 +15672,7 @@
       <c r="N10" s="104"/>
       <c r="O10" s="104"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="104" t="s">
         <v>319</v>
       </c>
@@ -14138,7 +15711,7 @@
       </c>
       <c r="O11" s="104"/>
     </row>
-    <row r="12" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="104" t="s">
         <v>321</v>
       </c>
@@ -14179,7 +15752,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="104" t="s">
         <v>325</v>
       </c>
@@ -14207,7 +15780,7 @@
       </c>
       <c r="O13" s="104"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="104" t="s">
         <v>328</v>
       </c>
@@ -14238,7 +15811,7 @@
       </c>
       <c r="O14" s="104"/>
     </row>
-    <row r="15" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="111" t="s">
         <v>332</v>
       </c>
@@ -14272,12 +15845,12 @@
       </c>
       <c r="O15" s="104"/>
     </row>
-    <row r="16" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="159" t="str">
+    <row r="16" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="209" t="str">
         <f>IF(B14&lt;2,"calculations in sheet 2","calculations in sheet 1")</f>
         <v>calculations in sheet 2</v>
       </c>
-      <c r="C16" s="160"/>
+      <c r="C16" s="210"/>
       <c r="E16" s="104" t="s">
         <v>120</v>
       </c>
@@ -14306,9 +15879,9 @@
         <v>safe</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="161"/>
-      <c r="C17" s="162"/>
+    <row r="17" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="211"/>
+      <c r="C17" s="212"/>
       <c r="E17" s="104" t="s">
         <v>313</v>
       </c>
@@ -14320,7 +15893,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="115" t="s">
         <v>337</v>
       </c>
@@ -14340,7 +15913,7 @@
       <c r="J18" s="104"/>
       <c r="K18" s="104"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="104" t="s">
         <v>340</v>
       </c>
@@ -14377,7 +15950,7 @@
       <c r="N19" s="117"/>
       <c r="O19" s="118"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="119" t="s">
         <v>343</v>
       </c>
@@ -14419,7 +15992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="104" t="s">
         <v>347</v>
       </c>
@@ -14461,7 +16034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I22" s="108" t="s">
         <v>351</v>
       </c>
@@ -14483,7 +16056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I23" s="131" t="s">
         <v>353</v>
       </c>
@@ -14495,8 +16068,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="104"/>
       <c r="I26" s="134" t="s">
         <v>354</v>
@@ -14504,7 +16077,7 @@
       <c r="J26" s="135"/>
       <c r="K26" s="136"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="I27" s="123" t="s">
         <v>101</v>
       </c>
@@ -14516,7 +16089,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="I28" s="123" t="s">
         <v>355</v>
       </c>
@@ -14527,7 +16100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="I29" s="123" t="s">
         <v>326</v>
       </c>
@@ -14539,7 +16112,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="I30" s="123" t="s">
         <v>356</v>
       </c>
@@ -14549,7 +16122,7 @@
       </c>
       <c r="K30" s="124"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="I31" s="123" t="s">
         <v>334</v>
       </c>
@@ -14559,7 +16132,7 @@
       </c>
       <c r="K31" s="124"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="I32" s="123" t="s">
         <v>74</v>
       </c>
@@ -14571,17 +16144,17 @@
         <v>318</v>
       </c>
     </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I33" s="123"/>
       <c r="K33" s="124"/>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I34" s="137" t="s">
         <v>357</v>
       </c>
       <c r="K34" s="124"/>
     </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I35" s="123" t="s">
         <v>358</v>
       </c>
@@ -14593,7 +16166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I36" s="123" t="s">
         <v>359</v>
       </c>
@@ -14604,7 +16177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="9:11" x14ac:dyDescent="0.4">
       <c r="I37" s="123" t="s">
         <v>360</v>
       </c>
@@ -14614,7 +16187,7 @@
       </c>
       <c r="K37" s="124"/>
     </row>
-    <row r="38" spans="9:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="9:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I38" s="108" t="s">
         <v>342</v>
       </c>
@@ -14640,41 +16213,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1ED527-55AB-45EE-BFEB-D837E8C7753A}">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="49"/>
-    <col min="5" max="5" width="28.44140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.90625" style="49"/>
+    <col min="5" max="5" width="28.453125" style="49" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="49" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="49"/>
+    <col min="7" max="7" width="8.90625" style="49"/>
     <col min="8" max="8" width="10" style="49" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="49"/>
-    <col min="10" max="10" width="20.33203125" style="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="49"/>
+    <col min="9" max="9" width="8.90625" style="49"/>
+    <col min="10" max="10" width="20.36328125" style="49" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.90625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A1" s="213" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="165"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="215"/>
       <c r="P1" s="73"/>
       <c r="Q1" s="73"/>
       <c r="R1" s="73"/>
@@ -14683,7 +16256,7 @@
       <c r="U1" s="73"/>
       <c r="V1" s="73"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="72" t="s">
         <v>94</v>
       </c>
@@ -14709,7 +16282,7 @@
       <c r="U2" s="73"/>
       <c r="V2" s="73"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="73"/>
       <c r="B3" s="73"/>
       <c r="C3" s="73"/>
@@ -14733,7 +16306,7 @@
       <c r="U3" s="73"/>
       <c r="V3" s="73"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="73"/>
       <c r="B4" s="73"/>
       <c r="C4" s="73"/>
@@ -14764,7 +16337,7 @@
       <c r="U4" s="73"/>
       <c r="V4" s="73"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="73" t="s">
         <v>363</v>
       </c>
@@ -14794,7 +16367,7 @@
       <c r="U5" s="73"/>
       <c r="V5" s="73"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="73" t="s">
         <v>364</v>
       </c>
@@ -14824,7 +16397,7 @@
       <c r="U6" s="73"/>
       <c r="V6" s="73"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="73" t="s">
         <v>105</v>
       </c>
@@ -14854,7 +16427,7 @@
       <c r="U7" s="73"/>
       <c r="V7" s="73"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="73" t="s">
         <v>109</v>
       </c>
@@ -14884,7 +16457,7 @@
       <c r="U8" s="73"/>
       <c r="V8" s="73"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="73" t="s">
         <v>365</v>
       </c>
@@ -14916,7 +16489,7 @@
       <c r="U9" s="73"/>
       <c r="V9" s="73"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="73" t="s">
         <v>367</v>
       </c>
@@ -14953,7 +16526,7 @@
       <c r="U10" s="73"/>
       <c r="V10" s="73"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="73" t="s">
         <v>370</v>
       </c>
@@ -14990,7 +16563,7 @@
       <c r="U11" s="73"/>
       <c r="V11" s="73"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="73" t="s">
         <v>373</v>
       </c>
@@ -15020,7 +16593,7 @@
       <c r="U12" s="73"/>
       <c r="V12" s="73"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="73" t="s">
         <v>113</v>
       </c>
@@ -15050,7 +16623,7 @@
       <c r="U13" s="73"/>
       <c r="V13" s="73"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="73" t="s">
         <v>374</v>
       </c>
@@ -15080,7 +16653,7 @@
       <c r="U14" s="73"/>
       <c r="V14" s="73"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="73" t="s">
         <v>376</v>
       </c>
@@ -15110,19 +16683,19 @@
       <c r="U15" s="73"/>
       <c r="V15" s="73"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="73"/>
       <c r="B16" s="73"/>
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
-      <c r="E16" s="166" t="s">
+      <c r="E16" s="138" t="s">
         <v>377</v>
       </c>
       <c r="F16" s="73"/>
       <c r="G16" s="73"/>
       <c r="H16" s="73"/>
       <c r="I16" s="73"/>
-      <c r="J16" s="166" t="s">
+      <c r="J16" s="138" t="s">
         <v>378</v>
       </c>
       <c r="K16" s="73"/>
@@ -15138,7 +16711,7 @@
       <c r="U16" s="73"/>
       <c r="V16" s="73"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="73" t="s">
         <v>379</v>
       </c>
@@ -15180,7 +16753,7 @@
       <c r="U17" s="73"/>
       <c r="V17" s="73"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="73" t="s">
         <v>381</v>
       </c>
@@ -15223,7 +16796,7 @@
       <c r="U18" s="73"/>
       <c r="V18" s="73"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="73" t="s">
         <v>384</v>
       </c>
@@ -15268,7 +16841,7 @@
       <c r="U19" s="73"/>
       <c r="V19" s="73"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="73" t="s">
         <v>386</v>
       </c>
@@ -15309,7 +16882,7 @@
       <c r="U20" s="73"/>
       <c r="V20" s="73"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="73" t="s">
         <v>388</v>
       </c>
@@ -15319,27 +16892,27 @@
       </c>
       <c r="C21" s="73"/>
       <c r="D21" s="73"/>
-      <c r="E21" s="167" t="s">
+      <c r="E21" s="139" t="s">
         <v>389</v>
       </c>
-      <c r="F21" s="167">
+      <c r="F21" s="139">
         <f>B12</f>
         <v>12</v>
       </c>
-      <c r="G21" s="168" t="s">
+      <c r="G21" s="140" t="s">
         <v>390</v>
       </c>
-      <c r="H21" s="167">
+      <c r="H21" s="139">
         <f>ROUNDDOWN(F20,-2)</f>
         <v>300</v>
       </c>
-      <c r="I21" s="167" t="s">
+      <c r="I21" s="139" t="s">
         <v>391</v>
       </c>
       <c r="J21" s="73" t="s">
         <v>290</v>
       </c>
-      <c r="K21" s="167">
+      <c r="K21" s="139">
         <f>5*B25</f>
         <v>495</v>
       </c>
@@ -15351,7 +16924,7 @@
       <c r="U21" s="73"/>
       <c r="V21" s="73"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="73" t="s">
         <v>128</v>
       </c>
@@ -15364,21 +16937,21 @@
       <c r="H22" s="73"/>
       <c r="I22" s="73"/>
       <c r="J22" s="73"/>
-      <c r="K22" s="167" t="s">
+      <c r="K22" s="139" t="s">
         <v>389</v>
       </c>
-      <c r="L22" s="167">
+      <c r="L22" s="139">
         <f>K18</f>
         <v>8</v>
       </c>
-      <c r="M22" s="168" t="s">
+      <c r="M22" s="140" t="s">
         <v>392</v>
       </c>
-      <c r="N22" s="167">
+      <c r="N22" s="139">
         <f>MIN(K21,K20,200)</f>
         <v>200</v>
       </c>
-      <c r="O22" s="167" t="s">
+      <c r="O22" s="139" t="s">
         <v>391</v>
       </c>
       <c r="P22" s="73"/>
@@ -15389,8 +16962,8 @@
       <c r="U22" s="73"/>
       <c r="V22" s="73"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="166" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23" s="138" t="s">
         <v>393</v>
       </c>
       <c r="B23" s="73"/>
@@ -15417,7 +16990,7 @@
       <c r="U23" s="73"/>
       <c r="V23" s="73"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="73" t="s">
         <v>394</v>
       </c>
@@ -15438,7 +17011,7 @@
       <c r="G24" s="73"/>
       <c r="H24" s="73"/>
       <c r="I24" s="73"/>
-      <c r="J24" s="166" t="s">
+      <c r="J24" s="138" t="s">
         <v>396</v>
       </c>
       <c r="K24" s="73"/>
@@ -15454,7 +17027,7 @@
       <c r="U24" s="73"/>
       <c r="V24" s="73"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="73" t="s">
         <v>397</v>
       </c>
@@ -15491,15 +17064,8 @@
       <c r="M25" s="73"/>
       <c r="N25" s="73"/>
       <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="73"/>
       <c r="B26" s="73"/>
       <c r="C26" s="73"/>
@@ -15522,16 +17088,9 @@
       <c r="M26" s="73"/>
       <c r="N26" s="73"/>
       <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="73"/>
-      <c r="R26" s="73"/>
-      <c r="S26" s="73"/>
-      <c r="T26" s="73"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="166" t="s">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A27" s="138" t="s">
         <v>399</v>
       </c>
       <c r="B27" s="73"/>
@@ -15553,15 +17112,8 @@
       <c r="M27" s="73"/>
       <c r="N27" s="73"/>
       <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
-      <c r="Q27" s="73"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-    </row>
-    <row r="28" spans="1:22" ht="16.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A28" s="73" t="s">
         <v>401</v>
       </c>
@@ -15585,23 +17137,16 @@
       </c>
       <c r="H28" s="73"/>
       <c r="I28" s="73"/>
-      <c r="J28" s="169" t="s">
+      <c r="J28" s="216" t="s">
         <v>287</v>
       </c>
-      <c r="K28" s="170"/>
-      <c r="L28" s="171"/>
+      <c r="K28" s="217"/>
+      <c r="L28" s="218"/>
       <c r="M28" s="73"/>
       <c r="N28" s="73"/>
       <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
-      <c r="Q28" s="73"/>
-      <c r="R28" s="73"/>
-      <c r="S28" s="73"/>
-      <c r="T28" s="73"/>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-    </row>
-    <row r="29" spans="1:22" ht="16.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="73" t="s">
         <v>403</v>
       </c>
@@ -15620,28 +17165,21 @@
       <c r="G29" s="73"/>
       <c r="H29" s="73"/>
       <c r="I29" s="73"/>
-      <c r="J29" s="172" t="s">
+      <c r="J29" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="K29" s="172">
+      <c r="K29" s="141">
         <f>F4</f>
         <v>3.5300000000000002</v>
       </c>
-      <c r="L29" s="172" t="s">
+      <c r="L29" s="141" t="s">
         <v>9</v>
       </c>
       <c r="M29" s="73"/>
       <c r="N29" s="73"/>
       <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="73"/>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="73"/>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-    </row>
-    <row r="30" spans="1:22" ht="16.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="73" t="s">
         <v>405</v>
       </c>
@@ -15661,28 +17199,21 @@
       <c r="G30" s="73"/>
       <c r="H30" s="73"/>
       <c r="I30" s="73"/>
-      <c r="J30" s="172" t="s">
+      <c r="J30" s="141" t="s">
         <v>363</v>
       </c>
-      <c r="K30" s="172">
+      <c r="K30" s="141">
         <f>B5</f>
         <v>2.6</v>
       </c>
-      <c r="L30" s="172" t="s">
+      <c r="L30" s="141" t="s">
         <v>9</v>
       </c>
       <c r="M30" s="73"/>
       <c r="N30" s="73"/>
       <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
-      <c r="Q30" s="73"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="73"/>
-    </row>
-    <row r="31" spans="1:22" ht="16.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="73" t="s">
         <v>407</v>
       </c>
@@ -15703,28 +17234,21 @@
       <c r="G31" s="73"/>
       <c r="H31" s="73"/>
       <c r="I31" s="73"/>
-      <c r="J31" s="172" t="s">
+      <c r="J31" s="141" t="s">
         <v>364</v>
       </c>
-      <c r="K31" s="172">
+      <c r="K31" s="141">
         <f>B6</f>
         <v>3.5</v>
       </c>
-      <c r="L31" s="172" t="s">
+      <c r="L31" s="141" t="s">
         <v>9</v>
       </c>
       <c r="M31" s="73"/>
       <c r="N31" s="73"/>
       <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
-      <c r="Q31" s="73"/>
-      <c r="R31" s="73"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="73"/>
-      <c r="U31" s="73"/>
-      <c r="V31" s="73"/>
-    </row>
-    <row r="32" spans="1:22" ht="16.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="73" t="s">
         <v>409</v>
       </c>
@@ -15745,28 +17269,21 @@
       <c r="G32" s="73"/>
       <c r="H32" s="73"/>
       <c r="I32" s="73"/>
-      <c r="J32" s="172" t="s">
+      <c r="J32" s="141" t="s">
         <v>293</v>
       </c>
-      <c r="K32" s="172">
+      <c r="K32" s="141">
         <f>F25</f>
         <v>376.79999999999995</v>
       </c>
-      <c r="L32" s="172" t="s">
+      <c r="L32" s="141" t="s">
         <v>183</v>
       </c>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
       <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-    </row>
-    <row r="33" spans="1:22" ht="16.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="73" t="s">
         <v>410</v>
       </c>
@@ -15788,28 +17305,21 @@
       <c r="G33" s="73"/>
       <c r="H33" s="73"/>
       <c r="I33" s="73"/>
-      <c r="J33" s="172" t="s">
+      <c r="J33" s="141" t="s">
         <v>296</v>
       </c>
-      <c r="K33" s="172">
+      <c r="K33" s="141">
         <f>H21</f>
         <v>300</v>
       </c>
-      <c r="L33" s="172" t="s">
+      <c r="L33" s="141" t="s">
         <v>8</v>
       </c>
       <c r="M33" s="73"/>
       <c r="N33" s="73"/>
       <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
-      <c r="Q33" s="73"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="73"/>
-    </row>
-    <row r="34" spans="1:22" ht="16.2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="73"/>
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
@@ -15822,14 +17332,14 @@
       <c r="G34" s="73"/>
       <c r="H34" s="73"/>
       <c r="I34" s="73"/>
-      <c r="J34" s="172" t="s">
+      <c r="J34" s="141" t="s">
         <v>297</v>
       </c>
-      <c r="K34" s="172">
+      <c r="K34" s="141">
         <f>K17</f>
         <v>118.8</v>
       </c>
-      <c r="L34" s="172" t="s">
+      <c r="L34" s="141" t="s">
         <v>183</v>
       </c>
       <c r="M34" s="73"/>
@@ -15843,7 +17353,7 @@
       <c r="U34" s="73"/>
       <c r="V34" s="73"/>
     </row>
-    <row r="35" spans="1:22" ht="16.2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="73"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
@@ -15853,14 +17363,14 @@
       <c r="G35" s="73"/>
       <c r="H35" s="73"/>
       <c r="I35" s="73"/>
-      <c r="J35" s="172" t="s">
+      <c r="J35" s="141" t="s">
         <v>296</v>
       </c>
-      <c r="K35" s="172">
+      <c r="K35" s="141">
         <f>N22</f>
         <v>200</v>
       </c>
-      <c r="L35" s="172" t="s">
+      <c r="L35" s="141" t="s">
         <v>8</v>
       </c>
       <c r="M35" s="73"/>
@@ -15874,7 +17384,7 @@
       <c r="U35" s="73"/>
       <c r="V35" s="73"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="73"/>
       <c r="B36" s="73"/>
       <c r="C36" s="73"/>
@@ -15898,7 +17408,7 @@
       <c r="U36" s="73"/>
       <c r="V36" s="73"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="73"/>
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
@@ -15922,7 +17432,7 @@
       <c r="U37" s="73"/>
       <c r="V37" s="73"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="73"/>
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
@@ -15956,7 +17466,6 @@
     <hyperlink ref="G21" r:id="rId2" display="mm@" xr:uid="{D4D681D7-0A2D-4D2A-A6FA-DE7CED33CE0A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -15964,80 +17473,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64ED705B-91FA-483D-AA0A-A1B6F3B13371}">
   <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="62" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.33203125" style="56" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.36328125" style="56" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.109375" style="56"/>
-    <col min="8" max="8" width="33.6640625" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.36328125" style="56" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.08984375" style="56"/>
+    <col min="8" max="8" width="33.6328125" style="56" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="56" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" style="56" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="56"/>
+    <col min="10" max="10" width="10.08984375" style="56" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.08984375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="173" t="s">
+    <row r="1" spans="1:29" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="223" t="s">
         <v>412</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="173"/>
-      <c r="M1" s="173"/>
-      <c r="N1" s="173"/>
-      <c r="O1" s="173"/>
-      <c r="P1" s="173"/>
-      <c r="Q1" s="173"/>
-      <c r="R1" s="173"/>
-      <c r="S1" s="173"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="173"/>
-      <c r="AA1" s="173"/>
-      <c r="AB1" s="173"/>
-      <c r="AC1" s="173"/>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="174" t="s">
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="223"/>
+      <c r="R1" s="223"/>
+      <c r="S1" s="223"/>
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="223"/>
+      <c r="AA1" s="223"/>
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="223"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3" s="222" t="s">
         <v>413</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="H3" s="174" t="s">
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="H3" s="222" t="s">
         <v>414</v>
       </c>
-      <c r="I3" s="174"/>
-      <c r="J3" s="174"/>
-      <c r="K3" s="174"/>
-      <c r="L3" s="174"/>
-      <c r="M3" s="174"/>
-      <c r="N3" s="174"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="222"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="R4" s="56">
         <f>16*(1.25-0.525)</f>
         <v>11.6</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="56" t="s">
         <v>415</v>
       </c>
@@ -16058,7 +17567,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="56" t="s">
         <v>417</v>
       </c>
@@ -16083,7 +17592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="56" t="s">
         <v>419</v>
       </c>
@@ -16101,7 +17610,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="56" t="s">
         <v>421</v>
       </c>
@@ -16126,7 +17635,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="56" t="s">
         <v>424</v>
       </c>
@@ -16144,7 +17653,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="H10" s="56" t="s">
         <v>39</v>
       </c>
@@ -16156,7 +17665,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="56" t="s">
         <v>426</v>
       </c>
@@ -16171,7 +17680,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>428</v>
       </c>
@@ -16192,7 +17701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
         <v>430</v>
       </c>
@@ -16202,18 +17711,18 @@
       <c r="D13" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="175" t="str">
+      <c r="H13" s="220" t="str">
         <f>CONCATENATE("Provide ",C27," mm bars @ ",FLOOR(I12,100)," mm c/c as Main reinforcement")</f>
         <v>Provide 12 mm bars @ 200 mm c/c as Main reinforcement</v>
       </c>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="175"/>
-      <c r="M13" s="175"/>
-      <c r="N13" s="175"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
+      <c r="K13" s="220"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="220"/>
+      <c r="N13" s="220"/>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="H14" s="56" t="s">
         <v>431</v>
       </c>
@@ -16225,13 +17734,13 @@
         <v>427</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="174" t="s">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A15" s="222" t="s">
         <v>432</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="174"/>
+      <c r="B15" s="222"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="222"/>
       <c r="H15" s="56" t="s">
         <v>429</v>
       </c>
@@ -16240,7 +17749,7 @@
         <v>111.94295900178253</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="56" t="s">
         <v>433</v>
       </c>
@@ -16250,18 +17759,18 @@
       <c r="D16" s="56" t="s">
         <v>434</v>
       </c>
-      <c r="H16" s="175" t="str">
+      <c r="H16" s="220" t="str">
         <f>CONCATENATE(" Provide ",C28, " mm Dia bars ", FLOOR(I15,25)," mm c/c as dist reinforcement")</f>
         <v xml:space="preserve"> Provide 8 mm Dia bars 100 mm c/c as dist reinforcement</v>
       </c>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="175"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="175"/>
-    </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I16" s="220"/>
+      <c r="J16" s="220"/>
+      <c r="K16" s="220"/>
+      <c r="L16" s="220"/>
+      <c r="M16" s="220"/>
+      <c r="N16" s="220"/>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" s="56" t="s">
         <v>435</v>
       </c>
@@ -16272,7 +17781,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" s="56" t="s">
         <v>379</v>
       </c>
@@ -16283,7 +17792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" s="56" t="s">
         <v>436</v>
       </c>
@@ -16294,7 +17803,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" s="56" t="s">
         <v>438</v>
       </c>
@@ -16305,7 +17814,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="56" t="s">
         <v>440</v>
       </c>
@@ -16315,17 +17824,17 @@
       <c r="D21" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="176" t="s">
+      <c r="H21" s="221" t="s">
         <v>441</v>
       </c>
-      <c r="I21" s="176"/>
-      <c r="J21" s="176"/>
-      <c r="K21" s="176"/>
-      <c r="L21" s="176"/>
-      <c r="M21" s="176"/>
-      <c r="N21" s="176"/>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I21" s="221"/>
+      <c r="J21" s="221"/>
+      <c r="K21" s="221"/>
+      <c r="L21" s="221"/>
+      <c r="M21" s="221"/>
+      <c r="N21" s="221"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" s="56" t="s">
         <v>442</v>
       </c>
@@ -16345,21 +17854,21 @@
       <c r="J22" s="56" t="s">
         <v>443</v>
       </c>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="177"/>
-      <c r="S22" s="177"/>
-      <c r="T22" s="177"/>
-      <c r="U22" s="177"/>
-      <c r="V22" s="177"/>
-      <c r="W22" s="177"/>
-      <c r="X22" s="177"/>
-      <c r="Y22" s="177"/>
-      <c r="Z22" s="177"/>
-      <c r="AA22" s="177"/>
-      <c r="AB22" s="177"/>
-      <c r="AC22" s="177"/>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q22" s="142"/>
+      <c r="R22" s="142"/>
+      <c r="S22" s="142"/>
+      <c r="T22" s="142"/>
+      <c r="U22" s="142"/>
+      <c r="V22" s="142"/>
+      <c r="W22" s="142"/>
+      <c r="X22" s="142"/>
+      <c r="Y22" s="142"/>
+      <c r="Z22" s="142"/>
+      <c r="AA22" s="142"/>
+      <c r="AB22" s="142"/>
+      <c r="AC22" s="142"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" s="56" t="s">
         <v>444</v>
       </c>
@@ -16376,21 +17885,21 @@
       <c r="J23" s="56" t="s">
         <v>443</v>
       </c>
-      <c r="Q23" s="177"/>
-      <c r="R23" s="177"/>
-      <c r="S23" s="177"/>
-      <c r="T23" s="177"/>
-      <c r="U23" s="177"/>
-      <c r="V23" s="177"/>
-      <c r="W23" s="177"/>
-      <c r="X23" s="177"/>
-      <c r="Y23" s="177"/>
-      <c r="Z23" s="177"/>
-      <c r="AA23" s="177"/>
-      <c r="AB23" s="177"/>
-      <c r="AC23" s="177"/>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q23" s="142"/>
+      <c r="R23" s="142"/>
+      <c r="S23" s="142"/>
+      <c r="T23" s="142"/>
+      <c r="U23" s="142"/>
+      <c r="V23" s="142"/>
+      <c r="W23" s="142"/>
+      <c r="X23" s="142"/>
+      <c r="Y23" s="142"/>
+      <c r="Z23" s="142"/>
+      <c r="AA23" s="142"/>
+      <c r="AB23" s="142"/>
+      <c r="AC23" s="142"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="56" t="s">
         <v>446</v>
       </c>
@@ -16398,21 +17907,21 @@
         <f>I22+I23</f>
         <v>92.067187078897959</v>
       </c>
-      <c r="Q24" s="177"/>
-      <c r="R24" s="177"/>
-      <c r="S24" s="177"/>
-      <c r="T24" s="177"/>
-      <c r="U24" s="177"/>
-      <c r="V24" s="177"/>
-      <c r="W24" s="177"/>
-      <c r="X24" s="177"/>
-      <c r="Y24" s="177"/>
-      <c r="Z24" s="177"/>
-      <c r="AA24" s="177"/>
-      <c r="AB24" s="177"/>
-      <c r="AC24" s="177"/>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q24" s="142"/>
+      <c r="R24" s="142"/>
+      <c r="S24" s="142"/>
+      <c r="T24" s="142"/>
+      <c r="U24" s="142"/>
+      <c r="V24" s="142"/>
+      <c r="W24" s="142"/>
+      <c r="X24" s="142"/>
+      <c r="Y24" s="142"/>
+      <c r="Z24" s="142"/>
+      <c r="AA24" s="142"/>
+      <c r="AB24" s="142"/>
+      <c r="AC24" s="142"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" s="56" t="s">
         <v>447</v>
       </c>
@@ -16430,21 +17939,21 @@
       <c r="J25" s="56" t="s">
         <v>443</v>
       </c>
-      <c r="Q25" s="177"/>
-      <c r="R25" s="177"/>
-      <c r="S25" s="177"/>
-      <c r="T25" s="177"/>
-      <c r="U25" s="177"/>
-      <c r="V25" s="177"/>
-      <c r="W25" s="177"/>
-      <c r="X25" s="177"/>
-      <c r="Y25" s="177"/>
-      <c r="Z25" s="177"/>
-      <c r="AA25" s="177"/>
-      <c r="AB25" s="177"/>
-      <c r="AC25" s="177"/>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q25" s="142"/>
+      <c r="R25" s="142"/>
+      <c r="S25" s="142"/>
+      <c r="T25" s="142"/>
+      <c r="U25" s="142"/>
+      <c r="V25" s="142"/>
+      <c r="W25" s="142"/>
+      <c r="X25" s="142"/>
+      <c r="Y25" s="142"/>
+      <c r="Z25" s="142"/>
+      <c r="AA25" s="142"/>
+      <c r="AB25" s="142"/>
+      <c r="AC25" s="142"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" s="56" t="s">
         <v>449</v>
       </c>
@@ -16462,21 +17971,21 @@
       <c r="J26" s="56" t="s">
         <v>443</v>
       </c>
-      <c r="Q26" s="177"/>
-      <c r="R26" s="177"/>
-      <c r="S26" s="177"/>
-      <c r="T26" s="177"/>
-      <c r="U26" s="177"/>
-      <c r="V26" s="177"/>
-      <c r="W26" s="177"/>
-      <c r="X26" s="177"/>
-      <c r="Y26" s="177"/>
-      <c r="Z26" s="177"/>
-      <c r="AA26" s="177"/>
-      <c r="AB26" s="177"/>
-      <c r="AC26" s="177"/>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q26" s="142"/>
+      <c r="R26" s="142"/>
+      <c r="S26" s="142"/>
+      <c r="T26" s="142"/>
+      <c r="U26" s="142"/>
+      <c r="V26" s="142"/>
+      <c r="W26" s="142"/>
+      <c r="X26" s="142"/>
+      <c r="Y26" s="142"/>
+      <c r="Z26" s="142"/>
+      <c r="AA26" s="142"/>
+      <c r="AB26" s="142"/>
+      <c r="AC26" s="142"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" s="56" t="s">
         <v>451</v>
       </c>
@@ -16496,21 +18005,21 @@
       <c r="J27" s="56" t="s">
         <v>443</v>
       </c>
-      <c r="Q27" s="177"/>
-      <c r="R27" s="177"/>
-      <c r="S27" s="177"/>
-      <c r="T27" s="177"/>
-      <c r="U27" s="177"/>
-      <c r="V27" s="177"/>
-      <c r="W27" s="177"/>
-      <c r="X27" s="177"/>
-      <c r="Y27" s="177"/>
-      <c r="Z27" s="177"/>
-      <c r="AA27" s="177"/>
-      <c r="AB27" s="177"/>
-      <c r="AC27" s="177"/>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q27" s="142"/>
+      <c r="R27" s="142"/>
+      <c r="S27" s="142"/>
+      <c r="T27" s="142"/>
+      <c r="U27" s="142"/>
+      <c r="V27" s="142"/>
+      <c r="W27" s="142"/>
+      <c r="X27" s="142"/>
+      <c r="Y27" s="142"/>
+      <c r="Z27" s="142"/>
+      <c r="AA27" s="142"/>
+      <c r="AB27" s="142"/>
+      <c r="AC27" s="142"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" s="56" t="s">
         <v>453</v>
       </c>
@@ -16530,21 +18039,21 @@
       <c r="J28" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="Q28" s="177"/>
-      <c r="R28" s="177"/>
-      <c r="S28" s="177"/>
-      <c r="T28" s="177"/>
-      <c r="U28" s="177"/>
-      <c r="V28" s="177"/>
-      <c r="W28" s="177"/>
-      <c r="X28" s="177"/>
-      <c r="Y28" s="177"/>
-      <c r="Z28" s="177"/>
-      <c r="AA28" s="177"/>
-      <c r="AB28" s="177"/>
-      <c r="AC28" s="177"/>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q28" s="142"/>
+      <c r="R28" s="142"/>
+      <c r="S28" s="142"/>
+      <c r="T28" s="142"/>
+      <c r="U28" s="142"/>
+      <c r="V28" s="142"/>
+      <c r="W28" s="142"/>
+      <c r="X28" s="142"/>
+      <c r="Y28" s="142"/>
+      <c r="Z28" s="142"/>
+      <c r="AA28" s="142"/>
+      <c r="AB28" s="142"/>
+      <c r="AC28" s="142"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" s="56" t="s">
         <v>454</v>
       </c>
@@ -16564,45 +18073,45 @@
       <c r="J29" s="56" t="s">
         <v>455</v>
       </c>
-      <c r="Q29" s="177"/>
-      <c r="R29" s="177"/>
-      <c r="S29" s="177"/>
-      <c r="T29" s="177"/>
-      <c r="U29" s="177"/>
-      <c r="V29" s="178" t="str">
+      <c r="Q29" s="142"/>
+      <c r="R29" s="142"/>
+      <c r="S29" s="142"/>
+      <c r="T29" s="142"/>
+      <c r="U29" s="142"/>
+      <c r="V29" s="219" t="str">
         <f>CONCATENATE(B36," m")</f>
         <v>0.15 m</v>
       </c>
-      <c r="W29" s="178"/>
-      <c r="X29" s="177"/>
-      <c r="Y29" s="177"/>
-      <c r="Z29" s="177"/>
-      <c r="AA29" s="177"/>
-      <c r="AB29" s="177"/>
-      <c r="AC29" s="177"/>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Q30" s="177"/>
-      <c r="R30" s="177"/>
-      <c r="S30" s="177"/>
-      <c r="T30" s="177"/>
-      <c r="U30" s="177"/>
-      <c r="V30" s="177"/>
-      <c r="W30" s="177"/>
-      <c r="X30" s="177"/>
-      <c r="Y30" s="177"/>
-      <c r="Z30" s="177"/>
-      <c r="AA30" s="177"/>
-      <c r="AB30" s="177"/>
-      <c r="AC30" s="177"/>
-    </row>
-    <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="176" t="s">
+      <c r="W29" s="219"/>
+      <c r="X29" s="142"/>
+      <c r="Y29" s="142"/>
+      <c r="Z29" s="142"/>
+      <c r="AA29" s="142"/>
+      <c r="AB29" s="142"/>
+      <c r="AC29" s="142"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q30" s="142"/>
+      <c r="R30" s="142"/>
+      <c r="S30" s="142"/>
+      <c r="T30" s="142"/>
+      <c r="U30" s="142"/>
+      <c r="V30" s="142"/>
+      <c r="W30" s="142"/>
+      <c r="X30" s="142"/>
+      <c r="Y30" s="142"/>
+      <c r="Z30" s="142"/>
+      <c r="AA30" s="142"/>
+      <c r="AB30" s="142"/>
+      <c r="AC30" s="142"/>
+    </row>
+    <row r="31" spans="1:29" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" s="221" t="s">
         <v>456</v>
       </c>
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="176"/>
+      <c r="B31" s="221"/>
+      <c r="C31" s="221"/>
+      <c r="D31" s="221"/>
       <c r="H31" s="56" t="s">
         <v>457</v>
       </c>
@@ -16610,21 +18119,21 @@
         <f>((I29*10^6)/(1000*I6*I6))</f>
         <v>0.56164968776762314</v>
       </c>
-      <c r="Q31" s="177"/>
-      <c r="R31" s="177"/>
-      <c r="S31" s="177"/>
-      <c r="T31" s="177"/>
-      <c r="U31" s="177"/>
-      <c r="V31" s="177"/>
-      <c r="W31" s="177"/>
-      <c r="X31" s="177"/>
-      <c r="Y31" s="177"/>
-      <c r="Z31" s="177"/>
-      <c r="AA31" s="177"/>
-      <c r="AB31" s="177"/>
-      <c r="AC31" s="177"/>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q31" s="142"/>
+      <c r="R31" s="142"/>
+      <c r="S31" s="142"/>
+      <c r="T31" s="142"/>
+      <c r="U31" s="142"/>
+      <c r="V31" s="142"/>
+      <c r="W31" s="142"/>
+      <c r="X31" s="142"/>
+      <c r="Y31" s="142"/>
+      <c r="Z31" s="142"/>
+      <c r="AA31" s="142"/>
+      <c r="AB31" s="142"/>
+      <c r="AC31" s="142"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" s="56" t="s">
         <v>458</v>
       </c>
@@ -16645,21 +18154,21 @@
       <c r="J32" s="56" t="s">
         <v>427</v>
       </c>
-      <c r="Q32" s="177"/>
-      <c r="R32" s="177"/>
-      <c r="S32" s="177"/>
-      <c r="T32" s="177"/>
-      <c r="U32" s="177"/>
-      <c r="V32" s="177"/>
-      <c r="W32" s="177"/>
-      <c r="X32" s="177"/>
-      <c r="Y32" s="177"/>
-      <c r="Z32" s="177"/>
-      <c r="AA32" s="177"/>
-      <c r="AB32" s="177"/>
-      <c r="AC32" s="177"/>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q32" s="142"/>
+      <c r="R32" s="142"/>
+      <c r="S32" s="142"/>
+      <c r="T32" s="142"/>
+      <c r="U32" s="142"/>
+      <c r="V32" s="142"/>
+      <c r="W32" s="142"/>
+      <c r="X32" s="142"/>
+      <c r="Y32" s="142"/>
+      <c r="Z32" s="142"/>
+      <c r="AA32" s="142"/>
+      <c r="AB32" s="142"/>
+      <c r="AC32" s="142"/>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="56" t="s">
         <v>459</v>
       </c>
@@ -16679,49 +18188,49 @@
       <c r="J33" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="Q33" s="177"/>
-      <c r="R33" s="177"/>
-      <c r="S33" s="177"/>
-      <c r="T33" s="177"/>
-      <c r="U33" s="177"/>
-      <c r="V33" s="177"/>
-      <c r="W33" s="177"/>
-      <c r="X33" s="177"/>
-      <c r="Y33" s="177"/>
-      <c r="Z33" s="177"/>
-      <c r="AA33" s="177"/>
-      <c r="AB33" s="177"/>
-      <c r="AC33" s="177"/>
-    </row>
-    <row r="34" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q33" s="142"/>
+      <c r="R33" s="142"/>
+      <c r="S33" s="142"/>
+      <c r="T33" s="142"/>
+      <c r="U33" s="142"/>
+      <c r="V33" s="142"/>
+      <c r="W33" s="142"/>
+      <c r="X33" s="142"/>
+      <c r="Y33" s="142"/>
+      <c r="Z33" s="142"/>
+      <c r="AA33" s="142"/>
+      <c r="AB33" s="142"/>
+      <c r="AC33" s="142"/>
+    </row>
+    <row r="34" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A34" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="H34" s="175" t="str">
+      <c r="H34" s="220" t="str">
         <f>CONCATENATE("Provide ", C27, " mm dia bar @",FLOOR(I33,100)," mm c/c as Main reinforcement")</f>
         <v>Provide 12 mm dia bar @200 mm c/c as Main reinforcement</v>
       </c>
-      <c r="I34" s="175"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="175"/>
-      <c r="L34" s="175"/>
-      <c r="M34" s="175"/>
-      <c r="N34" s="175"/>
-      <c r="Q34" s="177"/>
-      <c r="R34" s="177"/>
-      <c r="S34" s="177"/>
-      <c r="T34" s="177"/>
-      <c r="U34" s="177"/>
-      <c r="V34" s="177"/>
-      <c r="W34" s="177"/>
-      <c r="X34" s="177"/>
-      <c r="Y34" s="177"/>
-      <c r="Z34" s="177"/>
-      <c r="AA34" s="177"/>
-      <c r="AB34" s="177"/>
-      <c r="AC34" s="177"/>
-    </row>
-    <row r="35" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I34" s="220"/>
+      <c r="J34" s="220"/>
+      <c r="K34" s="220"/>
+      <c r="L34" s="220"/>
+      <c r="M34" s="220"/>
+      <c r="N34" s="220"/>
+      <c r="Q34" s="142"/>
+      <c r="R34" s="142"/>
+      <c r="S34" s="142"/>
+      <c r="T34" s="142"/>
+      <c r="U34" s="142"/>
+      <c r="V34" s="142"/>
+      <c r="W34" s="142"/>
+      <c r="X34" s="142"/>
+      <c r="Y34" s="142"/>
+      <c r="Z34" s="142"/>
+      <c r="AA34" s="142"/>
+      <c r="AB34" s="142"/>
+      <c r="AC34" s="142"/>
+    </row>
+    <row r="35" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A35" s="56" t="s">
         <v>461</v>
       </c>
@@ -16731,31 +18240,31 @@
       <c r="C35" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H35" s="175" t="str">
+      <c r="H35" s="220" t="str">
         <f>H16</f>
         <v xml:space="preserve"> Provide 8 mm Dia bars 100 mm c/c as dist reinforcement</v>
       </c>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="175"/>
-      <c r="L35" s="175"/>
-      <c r="M35" s="175"/>
-      <c r="N35" s="175"/>
-      <c r="Q35" s="177"/>
-      <c r="R35" s="177"/>
-      <c r="S35" s="177"/>
-      <c r="T35" s="177"/>
-      <c r="U35" s="177"/>
-      <c r="V35" s="177"/>
-      <c r="W35" s="177"/>
-      <c r="X35" s="177"/>
-      <c r="Y35" s="177"/>
-      <c r="Z35" s="177"/>
-      <c r="AA35" s="177"/>
-      <c r="AB35" s="177"/>
-      <c r="AC35" s="177"/>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="I35" s="220"/>
+      <c r="J35" s="220"/>
+      <c r="K35" s="220"/>
+      <c r="L35" s="220"/>
+      <c r="M35" s="220"/>
+      <c r="N35" s="220"/>
+      <c r="Q35" s="142"/>
+      <c r="R35" s="142"/>
+      <c r="S35" s="142"/>
+      <c r="T35" s="142"/>
+      <c r="U35" s="142"/>
+      <c r="V35" s="142"/>
+      <c r="W35" s="142"/>
+      <c r="X35" s="142"/>
+      <c r="Y35" s="142"/>
+      <c r="Z35" s="142"/>
+      <c r="AA35" s="142"/>
+      <c r="AB35" s="142"/>
+      <c r="AC35" s="142"/>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="56" t="s">
         <v>462</v>
       </c>
@@ -16765,27 +18274,27 @@
       <c r="C36" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="Q36" s="177"/>
-      <c r="R36" s="177"/>
-      <c r="S36" s="177"/>
-      <c r="T36" s="177" t="str">
+      <c r="Q36" s="142"/>
+      <c r="R36" s="142"/>
+      <c r="S36" s="142"/>
+      <c r="T36" s="142" t="str">
         <f>CONCATENATE(B35," m")</f>
         <v>0.45 m</v>
       </c>
-      <c r="U36" s="177"/>
-      <c r="V36" s="177"/>
-      <c r="W36" s="177"/>
-      <c r="X36" s="177"/>
-      <c r="Y36" s="177"/>
-      <c r="Z36" s="177"/>
-      <c r="AA36" s="177" t="str">
+      <c r="U36" s="142"/>
+      <c r="V36" s="142"/>
+      <c r="W36" s="142"/>
+      <c r="X36" s="142"/>
+      <c r="Y36" s="142"/>
+      <c r="Z36" s="142"/>
+      <c r="AA36" s="142" t="str">
         <f>CONCATENATE(B32, " m")</f>
         <v>5.25 m</v>
       </c>
-      <c r="AB36" s="177"/>
-      <c r="AC36" s="177"/>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AB36" s="142"/>
+      <c r="AC36" s="142"/>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="56" t="s">
         <v>463</v>
       </c>
@@ -16800,21 +18309,21 @@
       <c r="D37" s="56">
         <v>3</v>
       </c>
-      <c r="Q37" s="177"/>
-      <c r="R37" s="177"/>
-      <c r="S37" s="177"/>
-      <c r="T37" s="177"/>
-      <c r="U37" s="177"/>
-      <c r="V37" s="177"/>
-      <c r="W37" s="177"/>
-      <c r="X37" s="177"/>
-      <c r="Y37" s="177"/>
-      <c r="Z37" s="177"/>
-      <c r="AA37" s="177"/>
-      <c r="AB37" s="177"/>
-      <c r="AC37" s="177"/>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q37" s="142"/>
+      <c r="R37" s="142"/>
+      <c r="S37" s="142"/>
+      <c r="T37" s="142"/>
+      <c r="U37" s="142"/>
+      <c r="V37" s="142"/>
+      <c r="W37" s="142"/>
+      <c r="X37" s="142"/>
+      <c r="Y37" s="142"/>
+      <c r="Z37" s="142"/>
+      <c r="AA37" s="142"/>
+      <c r="AB37" s="142"/>
+      <c r="AC37" s="142"/>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="56" t="s">
         <v>238</v>
       </c>
@@ -16825,21 +18334,21 @@
       <c r="C38" s="56">
         <v>2</v>
       </c>
-      <c r="Q38" s="177"/>
-      <c r="R38" s="177"/>
-      <c r="S38" s="177"/>
-      <c r="T38" s="177"/>
-      <c r="U38" s="177"/>
-      <c r="V38" s="177"/>
-      <c r="W38" s="177"/>
-      <c r="X38" s="177"/>
-      <c r="Y38" s="177"/>
-      <c r="Z38" s="177"/>
-      <c r="AA38" s="177"/>
-      <c r="AB38" s="177"/>
-      <c r="AC38" s="177"/>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q38" s="142"/>
+      <c r="R38" s="142"/>
+      <c r="S38" s="142"/>
+      <c r="T38" s="142"/>
+      <c r="U38" s="142"/>
+      <c r="V38" s="142"/>
+      <c r="W38" s="142"/>
+      <c r="X38" s="142"/>
+      <c r="Y38" s="142"/>
+      <c r="Z38" s="142"/>
+      <c r="AA38" s="142"/>
+      <c r="AB38" s="142"/>
+      <c r="AC38" s="142"/>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="56" t="s">
         <v>464</v>
       </c>
@@ -16850,27 +18359,27 @@
       <c r="C39" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="Q39" s="177"/>
-      <c r="R39" s="177"/>
-      <c r="S39" s="177"/>
-      <c r="T39" s="177"/>
-      <c r="U39" s="177" t="str">
+      <c r="Q39" s="142"/>
+      <c r="R39" s="142"/>
+      <c r="S39" s="142"/>
+      <c r="T39" s="142"/>
+      <c r="U39" s="142" t="str">
         <f>CONCATENATE(B39," m")</f>
         <v>1 m</v>
       </c>
-      <c r="V39" s="177"/>
-      <c r="W39" s="177"/>
-      <c r="X39" s="177" t="str">
+      <c r="V39" s="142"/>
+      <c r="W39" s="142"/>
+      <c r="X39" s="142" t="str">
         <f>CONCATENATE(B40, " m")</f>
         <v>1.55 m</v>
       </c>
-      <c r="Y39" s="177"/>
-      <c r="Z39" s="177"/>
-      <c r="AA39" s="177"/>
-      <c r="AB39" s="177"/>
-      <c r="AC39" s="177"/>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y39" s="142"/>
+      <c r="Z39" s="142"/>
+      <c r="AA39" s="142"/>
+      <c r="AB39" s="142"/>
+      <c r="AC39" s="142"/>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="56" t="s">
         <v>465</v>
       </c>
@@ -16881,69 +18390,69 @@
       <c r="C40" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="Q40" s="177"/>
-      <c r="R40" s="177"/>
-      <c r="S40" s="177"/>
-      <c r="T40" s="177"/>
-      <c r="U40" s="177"/>
-      <c r="V40" s="177"/>
-      <c r="W40" s="177"/>
-      <c r="X40" s="177"/>
-      <c r="Y40" s="177"/>
-      <c r="Z40" s="177"/>
-      <c r="AA40" s="177"/>
-      <c r="AB40" s="177"/>
-      <c r="AC40" s="177"/>
-    </row>
-    <row r="41" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q41" s="177"/>
-      <c r="R41" s="177"/>
-      <c r="S41" s="177"/>
-      <c r="T41" s="177"/>
-      <c r="U41" s="177"/>
-      <c r="V41" s="177"/>
-      <c r="W41" s="177"/>
-      <c r="X41" s="177"/>
-      <c r="Y41" s="177"/>
-      <c r="Z41" s="177"/>
-      <c r="AA41" s="177"/>
-      <c r="AB41" s="177"/>
-      <c r="AC41" s="177"/>
-    </row>
-    <row r="42" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="174" t="s">
+      <c r="Q40" s="142"/>
+      <c r="R40" s="142"/>
+      <c r="S40" s="142"/>
+      <c r="T40" s="142"/>
+      <c r="U40" s="142"/>
+      <c r="V40" s="142"/>
+      <c r="W40" s="142"/>
+      <c r="X40" s="142"/>
+      <c r="Y40" s="142"/>
+      <c r="Z40" s="142"/>
+      <c r="AA40" s="142"/>
+      <c r="AB40" s="142"/>
+      <c r="AC40" s="142"/>
+    </row>
+    <row r="41" spans="1:29" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q41" s="142"/>
+      <c r="R41" s="142"/>
+      <c r="S41" s="142"/>
+      <c r="T41" s="142"/>
+      <c r="U41" s="142"/>
+      <c r="V41" s="142"/>
+      <c r="W41" s="142"/>
+      <c r="X41" s="142"/>
+      <c r="Y41" s="142"/>
+      <c r="Z41" s="142"/>
+      <c r="AA41" s="142"/>
+      <c r="AB41" s="142"/>
+      <c r="AC41" s="142"/>
+    </row>
+    <row r="42" spans="1:29" ht="15" x14ac:dyDescent="0.3">
+      <c r="A42" s="222" t="s">
         <v>466</v>
       </c>
-      <c r="B42" s="174"/>
-      <c r="C42" s="174"/>
-      <c r="D42" s="174"/>
-      <c r="H42" s="176" t="s">
+      <c r="B42" s="222"/>
+      <c r="C42" s="222"/>
+      <c r="D42" s="222"/>
+      <c r="H42" s="221" t="s">
         <v>467</v>
       </c>
-      <c r="I42" s="176"/>
-      <c r="J42" s="176"/>
-      <c r="K42" s="176"/>
-      <c r="L42" s="176"/>
-      <c r="M42" s="176"/>
-      <c r="N42" s="176"/>
-      <c r="Q42" s="177"/>
-      <c r="R42" s="177"/>
-      <c r="S42" s="177" t="str">
+      <c r="I42" s="221"/>
+      <c r="J42" s="221"/>
+      <c r="K42" s="221"/>
+      <c r="L42" s="221"/>
+      <c r="M42" s="221"/>
+      <c r="N42" s="221"/>
+      <c r="Q42" s="142"/>
+      <c r="R42" s="142"/>
+      <c r="S42" s="142" t="str">
         <f>CONCATENATE(B33," m")</f>
         <v>0.42 m</v>
       </c>
-      <c r="T42" s="177"/>
-      <c r="U42" s="177"/>
-      <c r="V42" s="177"/>
-      <c r="W42" s="177"/>
-      <c r="X42" s="177"/>
-      <c r="Y42" s="177"/>
-      <c r="Z42" s="177"/>
-      <c r="AA42" s="177"/>
-      <c r="AB42" s="177"/>
-      <c r="AC42" s="177"/>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="T42" s="142"/>
+      <c r="U42" s="142"/>
+      <c r="V42" s="142"/>
+      <c r="W42" s="142"/>
+      <c r="X42" s="142"/>
+      <c r="Y42" s="142"/>
+      <c r="Z42" s="142"/>
+      <c r="AA42" s="142"/>
+      <c r="AB42" s="142"/>
+      <c r="AC42" s="142"/>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="H43" s="56" t="s">
         <v>468</v>
       </c>
@@ -16954,21 +18463,21 @@
       <c r="J43" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="Q43" s="177"/>
-      <c r="R43" s="177"/>
-      <c r="S43" s="177"/>
-      <c r="T43" s="177"/>
-      <c r="U43" s="177"/>
-      <c r="V43" s="177"/>
-      <c r="W43" s="177"/>
-      <c r="X43" s="177"/>
-      <c r="Y43" s="177"/>
-      <c r="Z43" s="177"/>
-      <c r="AA43" s="177"/>
-      <c r="AB43" s="177"/>
-      <c r="AC43" s="177"/>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q43" s="142"/>
+      <c r="R43" s="142"/>
+      <c r="S43" s="142"/>
+      <c r="T43" s="142"/>
+      <c r="U43" s="142"/>
+      <c r="V43" s="142"/>
+      <c r="W43" s="142"/>
+      <c r="X43" s="142"/>
+      <c r="Y43" s="142"/>
+      <c r="Z43" s="142"/>
+      <c r="AA43" s="142"/>
+      <c r="AB43" s="142"/>
+      <c r="AC43" s="142"/>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="56" t="s">
         <v>469</v>
       </c>
@@ -16986,27 +18495,27 @@
       <c r="J44" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="Q44" s="177"/>
-      <c r="R44" s="177"/>
-      <c r="S44" s="177"/>
-      <c r="T44" s="177"/>
-      <c r="U44" s="178" t="str">
+      <c r="Q44" s="142"/>
+      <c r="R44" s="142"/>
+      <c r="S44" s="142"/>
+      <c r="T44" s="142"/>
+      <c r="U44" s="219" t="str">
         <f>CONCATENATE(B73,"mm")</f>
         <v>1300mm</v>
       </c>
-      <c r="V44" s="178"/>
-      <c r="W44" s="177"/>
-      <c r="X44" s="178" t="str">
+      <c r="V44" s="219"/>
+      <c r="W44" s="142"/>
+      <c r="X44" s="219" t="str">
         <f>CONCATENATE(B74,"mm x ",B75," mm")</f>
         <v>300mm x 300 mm</v>
       </c>
-      <c r="Y44" s="178"/>
-      <c r="Z44" s="177"/>
-      <c r="AA44" s="177"/>
-      <c r="AB44" s="177"/>
-      <c r="AC44" s="177"/>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Y44" s="219"/>
+      <c r="Z44" s="142"/>
+      <c r="AA44" s="142"/>
+      <c r="AB44" s="142"/>
+      <c r="AC44" s="142"/>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="56" t="s">
         <v>471</v>
       </c>
@@ -17027,21 +18536,21 @@
       <c r="J45" s="56" t="s">
         <v>472</v>
       </c>
-      <c r="Q45" s="177"/>
-      <c r="R45" s="177"/>
-      <c r="S45" s="177"/>
-      <c r="T45" s="177"/>
-      <c r="U45" s="177"/>
-      <c r="V45" s="177"/>
-      <c r="W45" s="177"/>
-      <c r="X45" s="177"/>
-      <c r="Y45" s="177"/>
-      <c r="Z45" s="177"/>
-      <c r="AA45" s="177"/>
-      <c r="AB45" s="177"/>
-      <c r="AC45" s="177"/>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q45" s="142"/>
+      <c r="R45" s="142"/>
+      <c r="S45" s="142"/>
+      <c r="T45" s="142"/>
+      <c r="U45" s="142"/>
+      <c r="V45" s="142"/>
+      <c r="W45" s="142"/>
+      <c r="X45" s="142"/>
+      <c r="Y45" s="142"/>
+      <c r="Z45" s="142"/>
+      <c r="AA45" s="142"/>
+      <c r="AB45" s="142"/>
+      <c r="AC45" s="142"/>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="56" t="s">
         <v>473</v>
       </c>
@@ -17059,21 +18568,21 @@
         <f>(I45*10^6)/(1000*(I44*1000)^2)</f>
         <v>0.99479336052149414</v>
       </c>
-      <c r="Q46" s="177"/>
-      <c r="R46" s="177"/>
-      <c r="S46" s="177"/>
-      <c r="T46" s="177"/>
-      <c r="U46" s="177"/>
-      <c r="V46" s="177"/>
-      <c r="W46" s="177"/>
-      <c r="X46" s="177"/>
-      <c r="Y46" s="177"/>
-      <c r="Z46" s="177"/>
-      <c r="AA46" s="177"/>
-      <c r="AB46" s="177"/>
-      <c r="AC46" s="177"/>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="Q46" s="142"/>
+      <c r="R46" s="142"/>
+      <c r="S46" s="142"/>
+      <c r="T46" s="142"/>
+      <c r="U46" s="142"/>
+      <c r="V46" s="142"/>
+      <c r="W46" s="142"/>
+      <c r="X46" s="142"/>
+      <c r="Y46" s="142"/>
+      <c r="Z46" s="142"/>
+      <c r="AA46" s="142"/>
+      <c r="AB46" s="142"/>
+      <c r="AC46" s="142"/>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="56" t="s">
         <v>474</v>
       </c>
@@ -17094,24 +18603,24 @@
       <c r="J47" s="56" t="s">
         <v>427</v>
       </c>
-      <c r="Q47" s="177"/>
-      <c r="R47" s="177"/>
-      <c r="S47" s="177"/>
-      <c r="T47" s="177"/>
-      <c r="U47" s="177"/>
-      <c r="V47" s="177"/>
-      <c r="W47" s="177" t="str">
+      <c r="Q47" s="142"/>
+      <c r="R47" s="142"/>
+      <c r="S47" s="142"/>
+      <c r="T47" s="142"/>
+      <c r="U47" s="142"/>
+      <c r="V47" s="142"/>
+      <c r="W47" s="142" t="str">
         <f>CONCATENATE(D37," m")</f>
         <v>3 m</v>
       </c>
-      <c r="X47" s="177"/>
-      <c r="Y47" s="177"/>
-      <c r="Z47" s="177"/>
-      <c r="AA47" s="177"/>
-      <c r="AB47" s="177"/>
-      <c r="AC47" s="177"/>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="X47" s="142"/>
+      <c r="Y47" s="142"/>
+      <c r="Z47" s="142"/>
+      <c r="AA47" s="142"/>
+      <c r="AB47" s="142"/>
+      <c r="AC47" s="142"/>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="H48" s="56" t="s">
         <v>429</v>
       </c>
@@ -17122,21 +18631,21 @@
       <c r="J48" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="177"/>
-      <c r="R48" s="177"/>
-      <c r="S48" s="177"/>
-      <c r="T48" s="177"/>
-      <c r="U48" s="177"/>
-      <c r="V48" s="177"/>
-      <c r="W48" s="177"/>
-      <c r="X48" s="177"/>
-      <c r="Y48" s="177"/>
-      <c r="Z48" s="177"/>
-      <c r="AA48" s="177"/>
-      <c r="AB48" s="177"/>
-      <c r="AC48" s="177"/>
-    </row>
-    <row r="49" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Q48" s="142"/>
+      <c r="R48" s="142"/>
+      <c r="S48" s="142"/>
+      <c r="T48" s="142"/>
+      <c r="U48" s="142"/>
+      <c r="V48" s="142"/>
+      <c r="W48" s="142"/>
+      <c r="X48" s="142"/>
+      <c r="Y48" s="142"/>
+      <c r="Z48" s="142"/>
+      <c r="AA48" s="142"/>
+      <c r="AB48" s="142"/>
+      <c r="AC48" s="142"/>
+    </row>
+    <row r="49" spans="1:29" ht="15" x14ac:dyDescent="0.3">
       <c r="A49" s="56" t="s">
         <v>475</v>
       </c>
@@ -17147,54 +18656,54 @@
       <c r="C49" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="H49" s="175" t="str">
+      <c r="H49" s="220" t="str">
         <f>CONCATENATE("Provide ", C29, " mm dia bars @ ",FLOOR(I48,25)," mm c/c" )</f>
         <v>Provide 12 mm dia bars @ 125 mm c/c</v>
       </c>
-      <c r="I49" s="175"/>
-      <c r="J49" s="175"/>
-      <c r="K49" s="175"/>
-      <c r="L49" s="175"/>
-      <c r="M49" s="175"/>
-      <c r="N49" s="175"/>
-      <c r="Q49" s="177"/>
-      <c r="R49" s="177"/>
-      <c r="S49" s="177"/>
-      <c r="T49" s="177"/>
-      <c r="U49" s="177"/>
-      <c r="V49" s="177"/>
-      <c r="W49" s="177"/>
-      <c r="X49" s="177"/>
-      <c r="Y49" s="177"/>
-      <c r="Z49" s="177"/>
-      <c r="AA49" s="177"/>
-      <c r="AB49" s="177"/>
-      <c r="AC49" s="177"/>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="Q50" s="177"/>
-      <c r="R50" s="177"/>
-      <c r="S50" s="177"/>
-      <c r="T50" s="177"/>
-      <c r="U50" s="177"/>
-      <c r="V50" s="177"/>
-      <c r="W50" s="177"/>
-      <c r="X50" s="177"/>
-      <c r="Y50" s="177"/>
-      <c r="Z50" s="177"/>
-      <c r="AA50" s="177"/>
-      <c r="AB50" s="177"/>
-      <c r="AC50" s="177"/>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="179"/>
-      <c r="B51" s="180" t="s">
+      <c r="I49" s="220"/>
+      <c r="J49" s="220"/>
+      <c r="K49" s="220"/>
+      <c r="L49" s="220"/>
+      <c r="M49" s="220"/>
+      <c r="N49" s="220"/>
+      <c r="Q49" s="142"/>
+      <c r="R49" s="142"/>
+      <c r="S49" s="142"/>
+      <c r="T49" s="142"/>
+      <c r="U49" s="142"/>
+      <c r="V49" s="142"/>
+      <c r="W49" s="142"/>
+      <c r="X49" s="142"/>
+      <c r="Y49" s="142"/>
+      <c r="Z49" s="142"/>
+      <c r="AA49" s="142"/>
+      <c r="AB49" s="142"/>
+      <c r="AC49" s="142"/>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="Q50" s="142"/>
+      <c r="R50" s="142"/>
+      <c r="S50" s="142"/>
+      <c r="T50" s="142"/>
+      <c r="U50" s="142"/>
+      <c r="V50" s="142"/>
+      <c r="W50" s="142"/>
+      <c r="X50" s="142"/>
+      <c r="Y50" s="142"/>
+      <c r="Z50" s="142"/>
+      <c r="AA50" s="142"/>
+      <c r="AB50" s="142"/>
+      <c r="AC50" s="142"/>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A51" s="143"/>
+      <c r="B51" s="144" t="s">
         <v>476</v>
       </c>
-      <c r="C51" s="180" t="s">
+      <c r="C51" s="144" t="s">
         <v>477</v>
       </c>
-      <c r="D51" s="180" t="s">
+      <c r="D51" s="144" t="s">
         <v>478</v>
       </c>
       <c r="H51" s="56" t="s">
@@ -17207,33 +18716,33 @@
       <c r="J51" s="56" t="s">
         <v>427</v>
       </c>
-      <c r="Q51" s="177"/>
-      <c r="R51" s="177"/>
-      <c r="S51" s="177"/>
-      <c r="T51" s="177"/>
-      <c r="U51" s="177"/>
-      <c r="V51" s="177"/>
-      <c r="W51" s="177"/>
-      <c r="X51" s="177"/>
-      <c r="Y51" s="177"/>
-      <c r="Z51" s="177"/>
-      <c r="AA51" s="177"/>
-      <c r="AB51" s="177"/>
-      <c r="AC51" s="177"/>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="179" t="s">
+      <c r="Q51" s="142"/>
+      <c r="R51" s="142"/>
+      <c r="S51" s="142"/>
+      <c r="T51" s="142"/>
+      <c r="U51" s="142"/>
+      <c r="V51" s="142"/>
+      <c r="W51" s="142"/>
+      <c r="X51" s="142"/>
+      <c r="Y51" s="142"/>
+      <c r="Z51" s="142"/>
+      <c r="AA51" s="142"/>
+      <c r="AB51" s="142"/>
+      <c r="AC51" s="142"/>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A52" s="143" t="s">
         <v>480</v>
       </c>
-      <c r="B52" s="180">
+      <c r="B52" s="144">
         <f>(C38-B36)*C16*(B32-B33)</f>
         <v>142.96800000000002</v>
       </c>
-      <c r="C52" s="180">
+      <c r="C52" s="144">
         <f>(C38-B36)/2</f>
         <v>0.92500000000000004</v>
       </c>
-      <c r="D52" s="180">
+      <c r="D52" s="144">
         <f>B52*C52</f>
         <v>132.24540000000002</v>
       </c>
@@ -17247,89 +18756,89 @@
       <c r="J52" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="177"/>
-      <c r="R52" s="177"/>
-      <c r="S52" s="177"/>
-      <c r="T52" s="177"/>
-      <c r="U52" s="177"/>
-      <c r="V52" s="177"/>
-      <c r="W52" s="177"/>
-      <c r="X52" s="177"/>
-      <c r="Y52" s="177"/>
-      <c r="Z52" s="177"/>
-      <c r="AA52" s="177"/>
-      <c r="AB52" s="177"/>
-      <c r="AC52" s="177"/>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A53" s="181" t="s">
+      <c r="Q52" s="142"/>
+      <c r="R52" s="142"/>
+      <c r="S52" s="142"/>
+      <c r="T52" s="142"/>
+      <c r="U52" s="142"/>
+      <c r="V52" s="142"/>
+      <c r="W52" s="142"/>
+      <c r="X52" s="142"/>
+      <c r="Y52" s="142"/>
+      <c r="Z52" s="142"/>
+      <c r="AA52" s="142"/>
+      <c r="AB52" s="142"/>
+      <c r="AC52" s="142"/>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A53" s="145" t="s">
         <v>481</v>
       </c>
-      <c r="B53" s="182">
+      <c r="B53" s="146">
         <f>C16*0.5*(C38-B36)*C38*TAN(RADIANS(C8))</f>
         <v>7.9312960959612324</v>
       </c>
-      <c r="C53" s="183">
+      <c r="C53" s="147">
         <f>(C38-B36)*1/3</f>
         <v>0.6166666666666667</v>
       </c>
-      <c r="D53" s="184">
+      <c r="D53" s="148">
         <f t="shared" ref="D53:D56" si="0">B53*C53</f>
         <v>4.8909659258427602</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A54" s="181" t="s">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A54" s="145" t="s">
         <v>482</v>
       </c>
-      <c r="B54" s="182">
+      <c r="B54" s="146">
         <f>C17*B36*(B32-B33)</f>
         <v>18.112500000000001</v>
       </c>
-      <c r="C54" s="182">
+      <c r="C54" s="146">
         <f>C38-B36/2</f>
         <v>1.925</v>
       </c>
-      <c r="D54" s="184">
+      <c r="D54" s="148">
         <f t="shared" si="0"/>
         <v>34.866562500000001</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="181" t="s">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A55" s="145" t="s">
         <v>483</v>
       </c>
-      <c r="B55" s="182">
+      <c r="B55" s="146">
         <f>(C17-C16)*(B32-B33)*(B35-B36)*0.5</f>
         <v>6.5205000000000011</v>
       </c>
-      <c r="C55" s="182">
+      <c r="C55" s="146">
         <f>C38-B36-(1/3)*(B35-B36)</f>
         <v>1.75</v>
       </c>
-      <c r="D55" s="184">
+      <c r="D55" s="148">
         <f t="shared" si="0"/>
         <v>11.410875000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="185" t="s">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A56" s="149" t="s">
         <v>484</v>
       </c>
-      <c r="B56" s="186">
+      <c r="B56" s="150">
         <f>C17*D37*B33</f>
         <v>31.5</v>
       </c>
-      <c r="C56" s="186">
+      <c r="C56" s="150">
         <f>D37/2</f>
         <v>1.5</v>
       </c>
-      <c r="D56" s="186">
+      <c r="D56" s="150">
         <f t="shared" si="0"/>
         <v>47.25</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B57" s="56">
         <f>SUM(B52:B56)+B47</f>
         <v>232.88335089264822</v>
@@ -17339,7 +18848,7 @@
         <v>230.66380342584276</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A59" s="56" t="s">
         <v>485</v>
       </c>
@@ -17348,7 +18857,7 @@
         <v>0.99046927374456839</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A60" s="56" t="s">
         <v>486</v>
       </c>
@@ -17357,7 +18866,7 @@
         <v>467.98624925210191</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A61" s="56" t="s">
         <v>487</v>
       </c>
@@ -17366,21 +18875,21 @@
         <v>2.2636028850789787</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A62" s="62" t="str">
         <f>IF(B61&gt;1.5,"Okay","Not Okay")</f>
         <v>Okay</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="176" t="s">
+    <row r="64" spans="1:29" ht="15" x14ac:dyDescent="0.3">
+      <c r="A64" s="221" t="s">
         <v>488</v>
       </c>
-      <c r="B64" s="176"/>
-      <c r="C64" s="176"/>
-      <c r="D64" s="176"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="221"/>
+      <c r="C64" s="221"/>
+      <c r="D64" s="221"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A66" s="56" t="s">
         <v>489</v>
       </c>
@@ -17391,12 +18900,12 @@
       <c r="C66" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="187" t="str">
+      <c r="D66" s="151" t="str">
         <f>IF(B66&lt;D37/6,"okay", " not okay")</f>
         <v>okay</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="56" t="s">
         <v>490</v>
       </c>
@@ -17412,7 +18921,7 @@
         <v>Okay</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="56" t="s">
         <v>492</v>
       </c>
@@ -17424,15 +18933,15 @@
         <v>491</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="176" t="s">
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+      <c r="A70" s="221" t="s">
         <v>493</v>
       </c>
-      <c r="B70" s="176"/>
-      <c r="C70" s="176"/>
-      <c r="D70" s="176"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" s="221"/>
+      <c r="C70" s="221"/>
+      <c r="D70" s="221"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="56" t="s">
         <v>487</v>
       </c>
@@ -17445,7 +18954,7 @@
         <v>Provide Shear Key</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="56" t="s">
         <v>494</v>
       </c>
@@ -17456,7 +18965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="56" t="s">
         <v>7</v>
       </c>
@@ -17467,7 +18976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="56" t="s">
         <v>11</v>
       </c>
@@ -17478,7 +18987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="56" t="s">
         <v>495</v>
       </c>
@@ -17490,7 +18999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="56" t="s">
         <v>496</v>
       </c>
@@ -17499,7 +19008,7 @@
         <v>1.9714071421442236</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="62" t="str">
         <f>IF(B77&gt;1.5,"Okay","not okay")</f>
         <v>Okay</v>
@@ -17507,16 +19016,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U44:V44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="H49:N49"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="V29:W29"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="H34:N34"/>
-    <mergeCell ref="H35:N35"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="H42:N42"/>
     <mergeCell ref="A1:AC1"/>
@@ -17525,6 +19024,16 @@
     <mergeCell ref="H13:N13"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="H16:N16"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="V29:W29"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="H34:N34"/>
+    <mergeCell ref="H35:N35"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A70:D70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17539,40 +19048,40 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" style="92" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="92"/>
-    <col min="5" max="5" width="40.44140625" style="92" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.90625" style="92" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.90625" style="92"/>
+    <col min="5" max="5" width="40.453125" style="92" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="92"/>
-    <col min="8" max="8" width="9.33203125" style="92" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" style="92" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="92"/>
+    <col min="7" max="7" width="8.90625" style="92"/>
+    <col min="8" max="8" width="9.36328125" style="92" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6328125" style="92" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.90625" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="157" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" s="202" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="157"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="188" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+      <c r="J1" s="202"/>
+      <c r="K1" s="202"/>
+      <c r="L1" s="202"/>
+      <c r="M1" s="202"/>
+      <c r="N1" s="202"/>
+      <c r="O1" s="202"/>
+      <c r="P1" s="202"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" s="152" t="s">
         <v>94</v>
       </c>
       <c r="E2" s="92" t="s">
@@ -17585,7 +19094,7 @@
       <c r="G2" s="92" t="s">
         <v>499</v>
       </c>
-      <c r="I2" s="188" t="s">
+      <c r="I2" s="152" t="s">
         <v>500</v>
       </c>
       <c r="J2" s="92" t="s">
@@ -17595,7 +19104,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="92" t="s">
         <v>503</v>
       </c>
@@ -17608,7 +19117,7 @@
       <c r="E3" s="92" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="189" t="str">
+      <c r="F3" s="153" t="str">
         <f>IF(F2&gt;B6,"UNSAFE","SAFE")</f>
         <v>SAFE</v>
       </c>
@@ -17630,7 +19139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="92" t="s">
         <v>505</v>
       </c>
@@ -17668,7 +19177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="92" t="s">
         <v>508</v>
       </c>
@@ -17678,14 +19187,14 @@
       <c r="C5" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="188" t="s">
+      <c r="E5" s="152" t="s">
         <v>509</v>
       </c>
       <c r="I5" s="92" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="92" t="s">
         <v>84</v>
       </c>
@@ -17716,7 +19225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="92" t="s">
         <v>176</v>
       </c>
@@ -17744,7 +19253,7 @@
         <v>0.63742283727591276</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="92" t="s">
         <v>173</v>
       </c>
@@ -17772,27 +19281,27 @@
         <v>1.3693063937629153</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="92" t="s">
         <v>515</v>
       </c>
-      <c r="J9" s="189" t="str">
+      <c r="J9" s="153" t="str">
         <f>IF(J7&gt;J8,"UNSAFE","SAFE")</f>
         <v>SAFE</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="92" t="s">
         <v>516</v>
       </c>
-      <c r="E10" s="188" t="s">
+      <c r="E10" s="152" t="s">
         <v>517</v>
       </c>
       <c r="I10" s="92" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="92" t="s">
         <v>519</v>
       </c>
@@ -17820,7 +19329,7 @@
         <v>994.93636363636347</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B12" s="92">
         <v>0.75</v>
       </c>
@@ -17845,7 +19354,7 @@
         <v>0.41623145607342016</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="92" t="s">
         <v>177</v>
       </c>
@@ -17873,19 +19382,19 @@
         <v>1.3693063937629153</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="92" t="s">
         <v>525</v>
       </c>
       <c r="B14" s="92">
         <v>4</v>
       </c>
-      <c r="J14" s="189" t="str">
+      <c r="J14" s="153" t="str">
         <f>IF(J12&gt;J13,"UNSAFE","SAFE")</f>
         <v>SAFE</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="92" t="s">
         <v>519</v>
       </c>
@@ -17895,11 +19404,11 @@
       <c r="C15" s="92" t="s">
         <v>521</v>
       </c>
-      <c r="E15" s="188" t="s">
+      <c r="E15" s="152" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B16" s="92">
         <v>0.75</v>
       </c>
@@ -17919,7 +19428,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="92" t="s">
         <v>177</v>
       </c>
@@ -17949,7 +19458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="92" t="s">
         <v>525</v>
       </c>
@@ -17959,7 +19468,7 @@
       <c r="E18" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="F18" s="190">
+      <c r="F18" s="154">
         <f>(SQRT(F24*10^6/(B8*B30*1000*0.138))*2)/1000</f>
         <v>0.4980501156454476</v>
       </c>
@@ -17971,7 +19480,7 @@
         <v>0.42626792511756256</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="92" t="s">
         <v>531</v>
       </c>
@@ -17993,7 +19502,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E20" s="92" t="s">
         <v>533</v>
       </c>
@@ -18005,8 +19514,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="188" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="152" t="s">
         <v>534</v>
       </c>
       <c r="E21" s="92" t="s">
@@ -18020,7 +19529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="92" t="s">
         <v>536</v>
       </c>
@@ -18032,7 +19541,7 @@
         <v>590.49235107162326</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="92" t="s">
         <v>538</v>
       </c>
@@ -18043,7 +19552,7 @@
       <c r="C23" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="188" t="s">
+      <c r="E23" s="152" t="s">
         <v>539</v>
       </c>
       <c r="G23" s="92" t="s">
@@ -18054,7 +19563,7 @@
         <v>511.277623798896</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="92" t="s">
         <v>541</v>
       </c>
@@ -18080,7 +19589,7 @@
         <v>27.203555540411344</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="92" t="s">
         <v>542</v>
       </c>
@@ -18098,7 +19607,7 @@
         <v>1.0027332281934931</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="92" t="s">
         <v>543</v>
       </c>
@@ -18120,7 +19629,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="92" t="s">
         <v>545</v>
       </c>
@@ -18132,7 +19641,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="92" t="s">
         <v>546</v>
       </c>
@@ -18152,12 +19661,12 @@
       <c r="G28" s="92" t="s">
         <v>272</v>
       </c>
-      <c r="H28" s="189" t="str">
+      <c r="H28" s="153" t="str">
         <f>IF(F28&gt;F26,"SAFE","UNSAFE")</f>
         <v>SAFE</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="92" t="s">
         <v>548</v>
       </c>
@@ -18169,7 +19678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="92" t="s">
         <v>549</v>
       </c>
@@ -18197,44 +19706,44 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.88671875" style="92"/>
-    <col min="5" max="5" width="34.6640625" style="92" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" style="92" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="92"/>
-    <col min="8" max="8" width="14.6640625" style="92" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="92"/>
+    <col min="1" max="1" width="28.08984375" style="92" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" style="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.90625" style="92"/>
+    <col min="5" max="5" width="34.6328125" style="92" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" style="92" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="92"/>
+    <col min="8" max="8" width="14.6328125" style="92" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.90625" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="191" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="224" t="s">
         <v>550</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="194"/>
-      <c r="P1" s="194"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="151" t="s">
+      <c r="B1" s="225"/>
+      <c r="C1" s="225"/>
+      <c r="D1" s="225"/>
+      <c r="E1" s="225"/>
+      <c r="F1" s="225"/>
+      <c r="G1" s="225"/>
+      <c r="H1" s="225"/>
+      <c r="I1" s="225"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="155"/>
+      <c r="N1" s="155"/>
+      <c r="O1" s="155"/>
+      <c r="P1" s="155"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
       <c r="E2" s="96" t="s">
         <v>551</v>
       </c>
@@ -18245,9 +19754,9 @@
       <c r="G2" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="195"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J2" s="156"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="94" t="s">
         <v>552</v>
       </c>
@@ -18257,9 +19766,9 @@
       <c r="C3" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="195"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J3" s="156"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="94" t="s">
         <v>553</v>
       </c>
@@ -18279,9 +19788,9 @@
       <c r="G4" s="94" t="s">
         <v>228</v>
       </c>
-      <c r="J4" s="195"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J4" s="156"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="94" t="s">
         <v>555</v>
       </c>
@@ -18298,10 +19807,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="94"/>
-      <c r="J5" s="195"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="196"/>
+      <c r="J5" s="156"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="157"/>
       <c r="E6" s="94" t="s">
         <v>557</v>
       </c>
@@ -18310,9 +19819,9 @@
         <v>6.1068195871589825</v>
       </c>
       <c r="G6" s="94"/>
-      <c r="J6" s="195"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J6" s="156"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="94" t="s">
         <v>558</v>
       </c>
@@ -18327,9 +19836,9 @@
         <v>7</v>
       </c>
       <c r="G7" s="94"/>
-      <c r="J7" s="195"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J7" s="156"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="94" t="s">
         <v>560</v>
       </c>
@@ -18339,9 +19848,9 @@
       <c r="C8" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="195"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J8" s="156"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="94" t="s">
         <v>561</v>
       </c>
@@ -18356,9 +19865,9 @@
       </c>
       <c r="F9" s="94"/>
       <c r="G9" s="94"/>
-      <c r="J9" s="195"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J9" s="156"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="94" t="s">
         <v>563</v>
       </c>
@@ -18384,9 +19893,9 @@
       <c r="I10" s="94">
         <v>60</v>
       </c>
-      <c r="J10" s="195"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J10" s="156"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="94" t="s">
         <v>566</v>
       </c>
@@ -18406,10 +19915,10 @@
       <c r="G11" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="195"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="196"/>
+      <c r="J11" s="156"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="157"/>
       <c r="E12" s="94" t="s">
         <v>568</v>
       </c>
@@ -18420,8 +19929,8 @@
       <c r="G12" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="195"/>
-      <c r="P12" s="197">
+      <c r="J12" s="156"/>
+      <c r="P12" s="158">
         <f>B3</f>
         <v>150</v>
       </c>
@@ -18429,7 +19938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="93" t="s">
         <v>569</v>
       </c>
@@ -18445,9 +19954,9 @@
         <v>252000</v>
       </c>
       <c r="G13" s="94"/>
-      <c r="J13" s="195"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J13" s="156"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="94" t="s">
         <v>572</v>
       </c>
@@ -18463,9 +19972,9 @@
       <c r="G14" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="195"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J14" s="156"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="94" t="s">
         <v>574</v>
       </c>
@@ -18475,7 +19984,7 @@
       <c r="C15" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="195"/>
+      <c r="J15" s="156"/>
       <c r="N15" s="92">
         <f>B4+B15/2</f>
         <v>225</v>
@@ -18484,7 +19993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="94" t="s">
         <v>575</v>
       </c>
@@ -18504,9 +20013,9 @@
       <c r="G16" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="J16" s="195"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="156"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="94" t="s">
         <v>577</v>
       </c>
@@ -18526,9 +20035,9 @@
       <c r="G17" s="94" t="s">
         <v>579</v>
       </c>
-      <c r="J17" s="195"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="156"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="94" t="s">
         <v>580</v>
       </c>
@@ -18548,9 +20057,9 @@
       <c r="G18" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="J18" s="195"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J18" s="156"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="94" t="s">
         <v>582</v>
       </c>
@@ -18571,9 +20080,9 @@
       <c r="G19" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="J19" s="195"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J19" s="156"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="94" t="s">
         <v>584</v>
       </c>
@@ -18583,10 +20092,10 @@
       <c r="C20" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="195"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="196"/>
+      <c r="J20" s="156"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="157"/>
       <c r="E21" s="94" t="s">
         <v>585</v>
       </c>
@@ -18597,14 +20106,14 @@
       <c r="G21" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="195"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="151" t="s">
+      <c r="J21" s="156"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="203" t="s">
         <v>586</v>
       </c>
-      <c r="B22" s="151"/>
-      <c r="C22" s="151"/>
+      <c r="B22" s="203"/>
+      <c r="C22" s="203"/>
       <c r="E22" s="94" t="s">
         <v>587</v>
       </c>
@@ -18615,9 +20124,9 @@
       <c r="G22" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="195"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J22" s="156"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="94" t="s">
         <v>588</v>
       </c>
@@ -18635,9 +20144,9 @@
       <c r="G23" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="J23" s="195"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J23" s="156"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="94" t="s">
         <v>591</v>
       </c>
@@ -18656,9 +20165,9 @@
         <v>SAFE &amp; OKAY</v>
       </c>
       <c r="G24" s="94"/>
-      <c r="J24" s="195"/>
-    </row>
-    <row r="25" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="156"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="94" t="s">
         <v>592</v>
       </c>
@@ -18669,22 +20178,22 @@
       <c r="C25" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="J25" s="195"/>
-    </row>
-    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J25" s="156"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="94" t="s">
         <v>593</v>
       </c>
       <c r="B26" s="94"/>
       <c r="C26" s="94"/>
-      <c r="E26" s="198" t="s">
+      <c r="E26" s="159" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="199"/>
-      <c r="G26" s="200"/>
-      <c r="J26" s="195"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="F26" s="160"/>
+      <c r="G26" s="161"/>
+      <c r="J26" s="156"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="94" t="s">
         <v>594</v>
       </c>
@@ -18695,19 +20204,19 @@
       <c r="C27" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="201" t="s">
+      <c r="E27" s="162" t="s">
         <v>595</v>
       </c>
-      <c r="F27" s="202">
+      <c r="F27" s="163">
         <f>B3</f>
         <v>150</v>
       </c>
-      <c r="G27" s="203" t="s">
+      <c r="G27" s="164" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="195"/>
-    </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="J27" s="156"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="94" t="s">
         <v>596</v>
       </c>
@@ -18716,17 +20225,17 @@
         <v>0.60606060606060608</v>
       </c>
       <c r="C28" s="94"/>
-      <c r="E28" s="201" t="s">
+      <c r="E28" s="162" t="s">
         <v>597</v>
       </c>
-      <c r="F28" s="202">
+      <c r="F28" s="163">
         <f>B7</f>
         <v>4.5999999999999996</v>
       </c>
-      <c r="G28" s="203"/>
-      <c r="J28" s="195"/>
-    </row>
-    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G28" s="164"/>
+      <c r="J28" s="156"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="94" t="s">
         <v>598</v>
       </c>
@@ -18737,34 +20246,34 @@
       <c r="C29" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="201" t="s">
+      <c r="E29" s="162" t="s">
         <v>569</v>
       </c>
-      <c r="F29" s="202" t="str">
+      <c r="F29" s="163" t="str">
         <f>B13</f>
         <v>ISHB 300@619N/M</v>
       </c>
-      <c r="G29" s="203"/>
-      <c r="J29" s="195"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="204"/>
-      <c r="B30" s="205"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="205"/>
-      <c r="E30" s="206" t="s">
+      <c r="G29" s="164"/>
+      <c r="J29" s="156"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="165"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="166"/>
+      <c r="E30" s="167" t="s">
         <v>551</v>
       </c>
-      <c r="F30" s="207">
+      <c r="F30" s="168">
         <f>F2</f>
         <v>45.249480937575413</v>
       </c>
-      <c r="G30" s="208" t="s">
+      <c r="G30" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="H30" s="205"/>
-      <c r="I30" s="205"/>
-      <c r="J30" s="209"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="3">
